--- a/Etats.xlsx
+++ b/Etats.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="206" documentId="11_F25DC773A252ABEACE02EC973B5B5D0C5ADE589F" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{26F6B0A5-E364-48BB-A714-B077B7FE1689}"/>
+  <xr:revisionPtr revIDLastSave="258" documentId="11_F25DC773A252ABEACE02EC973B5B5D0C5ADE589F" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{A2719828-E665-4E95-ABEE-B0B9445BAE57}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4530" yWindow="5385" windowWidth="27705" windowHeight="11400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etats" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Etats!$A$1:$G$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tilts!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tilts!$A$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="152">
   <si>
     <t>Nom</t>
   </si>
@@ -409,6 +409,93 @@
   </si>
   <si>
     <t>WISE Description: Your character is Wise. She seeks the intelligent, reasoned answer in all things. She looks to past successes and failures, and those successes and failures of others so as to take a smarter course of action. This inspires others to challenge her wisdom, and question her foundation of knowledge. Any rolls to defy or question her advice gain +2 dice. When she’s proven her reason sound, she’s redoubled in her understanding of the world. Possible Sources: Flaring Wisdom Renown brands with Essence. Resolution: Once at least one individual has used the +2 bonus, you may choose to shed this Condition to add your character’s Wisdom Renown in automatic successes to any Investigation, Medicine, or Occult action, even if she rolls no successes. Beat: n/a</t>
+  </si>
+  <si>
+    <t>ARM WRACK Description: Your arm burns with pain and then goes numb. It could be dislocated, sprained, or broken, but whatever’s wrong with it, you can’t move your limb. Effect: If your arm’s broken or otherwise busted, you drop whatever you’re holding in that arm and can’t use it to attack opponents — unless you’ve got the Ambidextrous Merit, you suffer off-hand penalties for any rolls that require manual dexterity. If this effect spreads to both limbs, you’re down to a chance die on any rolls that require manual dexterity, and -3 to all other Physical actions. Causing the Tilt: Some supernatural powers can cripple a victim’s limbs or break bone with a touch. A character can have his arm knocked out by a targeted blow to the arm (–2 penalty) that deals more damage than the character’s Stamina. A targeted blow to the hand inflicts this Tilt if it does any damage. Ending the Tilt: If the Tilt is inflicted as a result of an attack, mark an ‘x’ under the leftmost Health box inflicted in that attack; the Tilt ends when the damage that caused it has healed. If the damage that inflicts this Tilt is aggravated, the character loses the use of his arm (or straight up loses his arm) permanently.</t>
+  </si>
+  <si>
+    <t>BLINDED Description: The character’s eyes are damaged or removed. Effect: The character suffers a -3 penalty to any rolls that rely on vision — including attack rolls — and halves his Defense if one eye is blinded. That penalty increases to -5 and losing all Defense if both eyes are affected. Causing the Tilt: The normal way to inflict the tilt is to deal damage to the target’s eyes — a specified attack with a -5 penalty (see Specified Targets, p. 168). A successful attack normally damages one eye. It takes an exceptional success to totally blind an attacker. An attacker can inflict temporary blindness by slashing at her opponent’s brow, throwing sand into his eyes, or kicking up dirt. This requires an attack roll of Dexterity + Athletics with a -3 penalty; the victim’s Defense applies to this attack. If it succeeds, the target is Blinded for the next turn. Ending the Tilt: If an attack against the character’s eye does any points of damage, mark an ‘x’ under the leftmost Health box inflicted in that attack. If the damage inflicted is aggravated the character loses vision in that eye permanently. Otherwise, the condition ends when the damage that caused the Tilt is healed.</t>
+  </si>
+  <si>
+    <t>EARTHQUAKE Description: Everything shudders and shakes, and rents tear the ground wide open. Effect: Earthquakes don’t last long, but they don’t have to. When the quake’s actually occurring, all Dexterity-based dice pools (and Defense) suffer a -1 to -5 penalty depending on the quake’s severity. Characters take between one and three points of lethal damage per turn of the quake’s duration, though a reflexive Stamina + Athletics roll can downgrade that damage to bashing — or cancel it entirely on an exceptional success. Causing the Tilt: Without tremendous supernatural power, it’s almost impossible to cause an earthquake. A character who detonates a powerful explosive underground might simulate the effects over a city-block for a few seconds. Ending the Tilt: Earthquakes are fortunately very quick events. It’s very rare for one to last more than a minute (20 turns), so waiting them out is the best course of action.</t>
+  </si>
+  <si>
+    <t>HEAVY WINDS Description: Howling winds buffet at the characters, whipping street furniture into the air, tearing the roofs from buildings. Powerful winds can toss cars around like toys. Anyone out in the winds feels like they’re taking a beating just for walking down the street. Effect: Heavy winds are loud, so characters suffer a -3 modifier to aural Perception rolls. Also the wind inflicts a penalty to all Physical rolls when out in the winds — including Drive rolls. Grade the wind from one to five — one is tropical storm level (around 40 MPH), three is hurricane level (around 80 MPH), and five is tornado level (150+ MPH). This is the penalty applied to Physical dice rolls. Characters outside in the maelstrom take damage from flying debris, taking bashing damage each turn equal to the wind’s rating. A characters can make a reflexive Dexterity + Athletics roll to avoid damage. Causing the Tilt: Heavy winds are a fact of life, from siroccos in the desert to tornados in the Midwest to wind shears everywhere. Ending the Tilt: Getting out of the wind is the best way to end this Tilt. Sometimes that’s as easy as sheltering in an automobile — as long as nobody tries to drive. Buildings provide more permanent shelter.</t>
+  </si>
+  <si>
+    <t>KNOCKED DOWN Description: Something knocks the character to the floor, either toppling her with a powerful blow to the chest or taking one of her legs out from under her. Effect: The character is knocked off her feet. If she hasn’t already acted this turn, she loses her action. Once she’s on the ground, a character is considered prone. The character can still apply Defense against incoming attacks, and can attempt to attack from the ground at a -2 penalty. Causing the Tilt: Some weapons list “Knockdown” as a special effect of a damaging hit. Otherwise, a melee weapon with a damage modifier of +2 or greater, or a firearm with a damage modifier of +3 or more can be used to knock a character down with the force of the blow. Alternatively, a melee weapon or unarmed attack can knock an opponent down with a targeted attack against the legs (–2 modifier). The attacker declares that he wants to knock his opponent down, and halves the total damage done (rounding down). On a successful attack, the target is knocked down. Ending the Tilt: The easiest way to end this Tilt is to stand up, which takes an action. A character who hasn’t yet acted can make a Dexterity + Athletics roll, minus any weapon modifier, instead of her normal action. If successful, she avoids the effects of this Tilt altogether. On a failure, she falls over and the Tilt applies as normal.</t>
+  </si>
+  <si>
+    <t>LEG WRACK Description: Your leg feels like it’s going to snap clean off whenever you move; when you stop moving you feel a burning numbness that encourages you to avoid moving. Effect: If your leg is broken, sprained, or dislocated, halve your Speed and suffer a -2 penalty on Physical rolls that require movement (and Defense). If both of your legs are wracked, you fall over — taking the Knocked Down Tilt — and cannot get up. Your Speed is reduced to 1; if you want to move at all, you cannot take any other action. Physical rolls that require movement are reduced to a chance die. Causing the Tilt: Some supernatural powers can cripple a victim’s limbs or break bone with a touch. A character can have his leg knocked out by a targeted blow to the leg (-2 penalty) that deals more damage than the character’s Stamina. Ending the Tilt: If the Tilt is inflicted as a result of an attack, mark an ‘x’ under the leftmost Health box inflicted in that attack. The Tilt ends when the damage that caused it has healed. If the damage that inflicts this Tilt is aggravated, the character loses use of his leg permanently.</t>
+  </si>
+  <si>
+    <t>POISONED Description: You’ve got poison or sickness inside you. It’s tearing you apart from the inside; burning like acid in your gut and making your head swim. Effect: This Tilt applies a general sense of being poisoned to a character without worrying about Toxicity during combat. For the purposes of this Tilt, a poison is either “moderate” or “grave” — a moderate poison causes one point of bashing damage per turn of combat, while a grave poison ups that to one point of lethal damage per turn. If the Storyteller cares to continue the effects of the poison outside of combat, he can apply the standard rules for handling poisons and toxins when combat is complete. Causing the Tilt: It’s possible for a character to not know that he’s been poisoned. It could be as innocuous as switching drinks with a pretty girl who is the target of a mob hit, or as simple as walking into a house with a carbon monoxide leak. That said, the main time poison comes up in combat is when one combatant inflicts it on another. Injecting your opponent with a syringe full of drain cleaner or snake venom is a Dexterity + Weaponry attack, suffering a -1 modifier for the improvised weapon. Ending the Tilt: Short of immediate medical attention — and how many fights take place in an emergency room? — all a victim can do is struggle on. Roll Stamina + Resolve as a reflexive action each turn that your character is poisoned. If your character intends to act (meaning, takes a non-reflexive action), the roll suffers a -3 penalty. Success counteracts the damage for one turn only.</t>
+  </si>
+  <si>
+    <t>STUNNED Description: Your character is dazed and unable to think straight. Maybe her vision blurs. If she’s stunned as a result of a blow to the head, she’s probably got a concussion. Effect: A character with the Stunned Tilt loses her next action, and halves her Defense until she can next act. Causing the Tilt: A character can be stunned by any attack that does at least as much damage as her Size in a single hit. Some weapons have a “stun” special ability. These double the weapon modifier only for the purpose of working out whether the attacker inflicts the Stunned Tilt. Attacks against the target’s head (see “Specified Targets,” p. 168) count the character’s Size as one lower for the purposes of this Tilt. The Storyteller might determine that additional effects cause this Tilt, like being caught in the blast area of an explosion. Ending the Tilt: The effects of this Tilt normally only last for a single turn. The character can end the Tilt during her own action by reflexively spending a point of Willpower to gather her wits, though she suffers a –3 modifier to any actions she takes that turn.</t>
+  </si>
+  <si>
+    <t>Beaten Down Description: The character has had the fight knocked out of him. Effect: The character cannot take active part in the fight without extra effort. The player must spend a point of Willpower each time he wants the character to take a violent action in the fight. He can still run, Dodge, and apply Defense. If he wishes to take another action, the Storyteller should judge whether the action is aggressive enough to require the expenditure.` Causing the Tilt: The character suffers bashing damage in excess of his Stamina or any amount of lethal damage. Ending the Tilt: The character surrenders and gives the aggressor what he wants. At this point, the character regains a point of Willpower and takes a Beat, but can take no further action in the fight. If the aggressor’s intent is to kill or injure the character, obviously surrender isn’t a good option.</t>
+  </si>
+  <si>
+    <t>Blinded Description: The character’s eyes are damaged or removed, or the character is placed in a situation where eyesight is eliminated (a pitch-black room or a supernatural effect). Effect: The character suffers a −3 penalty to any rolls that rely on vision — including attack rolls — and halves his Defense if one eye is blinded. That penalty increases to −5 and losing all Defense if both eyes are affected. Causing the Tilt: The most common means of inflicting the tilt is to severely impair the target’s eyesight (using a blindfold, etc). An attacker can inflict temporary blindness by slashing at her opponent’s brow, throwing sand into his eyes, or kicking up dirt. This requires an attack roll of Dexterity + Athletics with a −3 penalty; the victim’s Defense applies to this attack. If it succeeds, the target is Blinded for the next turn. Blindness can also be inflicted by dealing damage to the target’s eyes — a specified attack with a −5 penalty (see Specified Targets, above). A successful attack normally damages one eye. It takes an exceptional success to totally blind an attacker. Ending the Tilt: If an attack against the character’s eye does any points of damage, mark an ‘x’ under the leftmost Health box inflicted in that attack. If the damage inflicted is aggravated the character loses vision in that eye permanently. Otherwise, the condition ends when the damage that caused the Tilt is healed.</t>
+  </si>
+  <si>
+    <t>Blizzard (Environmental) Description: Heavy snowfall carpets the ground and just keeps falling, whipped up by howling winds into a barrage of whirling white. Effect: Blizzards make it very hard to see for any real distance. Rolls to see things close to the character’s person, out to arm’s length away, suffer a −1 penalty. Each additional ten yards inflicts an additional −1 penalty (cumulative) on all visual Perception rolls. This penalty also applies to ranged attack rolls. Moving through snow is difficult. Every four inches of snow applies a −1 penalty to appropriate Physical rolls, including combat rolls, Athletics, and so forth. The Blizzard Tilt rarely applies by itself — the Storyteller may also inflict any or all of the Extreme Cold, Heavy Winds, or Ice Tilts (all found below). Causing the Tilt: For the most part, the weather is out of the characters’ control — the Storyteller should telegraph an incoming blizzard before it hits, but it’s ultimately up to her. Some supernatural powers might grant a character the power to create a blizzard. Ending the Tilt: Without supernatural powers, characters can’t “end” a blizzard. The best they can manage is to escape the weather or wait for it to stop. Proper equipment (such as goggles and snow boots) can add +1 to +3 to a roll, offsetting some of the penalties. If someone is causing this Tilt through a supernatural power, it’s possible that the characters could disrupt his concentration.</t>
+  </si>
+  <si>
+    <t>Deafened Description: The character can’t hear. Maybe he’s suffering intense tinnitus or can only hear the roaring of blood in his ears, or he just plain can’t hear. Effect: If the character is deaf in one ear, he suffers a −3 penalty to hearing-based Perception rolls. A character who is struck deaf in both ears only gets a chance die on hearing-based Perception rolls, and suffers a −2 penalty to all combat-related dice rolls — suddenly losing the ability to hear the people around you is tremendously disorienting. Causing the Tilt: A particularly loud noise within 10 feet of the character may cause temporary hearing loss as though the character were deaf in both ears. Alternatively, a targeted attack on the ear — at a −4 penalty — can deafen a character. Supernatural creatures with heightened senses can be deafened by loud noises at greater distances. Ending the Tilt: Deafness from loud noises fades after 10 – (victim’s Stamina + Resolve) turns. If an attack against the character’s ear does any points of damage, mark an ‘x’ under the leftmost Health box inflicted in that attack. If the damage inflicted is aggravated, the character loses hearing in the ear permanently. Otherwise, the condition ends when the damage that caused the Tilt is healed.</t>
+  </si>
+  <si>
+    <t>Drugged Description: The character’s mind is addled by mind-altering substances, such as drink or drugs. Effect: The effects of specific drugs are detailed in the on p.177 of the World of Darkness Rulebook. A generic narcotic can be represented with one set of modifiers: the character suffers a −2 modifier to Speed (and static Defense, if used) and a −3 penalty to all rolls in combat, including Defense and Perception. The character also ignores wound penalties. Causing the Tilt: If the character has chosen to take drugs, then he suffers the effects. To administer drugs to another character is a Dexterity + Weaponry attack, suffering a −1 modifier for the improvised weapon. If the drug has to go in to a specific body part (such as an arm or mouth), it requires an attack against a specified target. Ending the Tilt: Each drug in the World of Darkness Rulebook explains how long a high lasts. A generic narcotic lasts for 10 – (victim’s Stamina + Resolve) hours. This time is halved by medical help, such as pumping the victim’s stomach or flushing his system.</t>
+  </si>
+  <si>
+    <t>Earthquake (Environmental) Description: Everything shudders and shakes; huge rents and holes tear the ground wide open. Effect: Earthquakes don’t last long, but they don’t have to. When the quake’s actually occurring, all Dexterity-based dice pools (and Defense) suffer a −1 to −5 penalty depending on the quake’s severity. Characters take between one and three points of lethal damage per turn of the quake’s duration, though a reflexive Stamina + Athletics roll can downgrade that damage to bashing — or cancel it entirely on an exceptional success. Causing the Tilt: Without tremendous supernatural power, it’s almost impossible to cause an earthquake. A character who detonates a powerful explosive underground might simulate the effects over a city-block for a few seconds. Ending the Tilt: Earthquakes are fortunately very quick events. It’s very rare for one to last more than a minute (20 turns), so waiting them out is the best course of action.</t>
+  </si>
+  <si>
+    <t>Extreme Cold (Environmental) Description: Bone-chilling winds bite through the character, or trudging through knee-deep snow takes all of the sensation from his limbs. Any time the temperature gets down below zero degrees Celsius (32 degrees Fahrenheit), a character can suffer from the cold’s effects. This Tilt can sometimes be personal, either as a result of a medical condition such as hypothermia or a supernatural power. Effect: When the temperature is below freezing, characters can’t heal bashing damage — the extreme temperature deals damage at the same rate normal characters heal it (a cut might turn to frostbite, for instance). Supernatural beings and characters who heal faster than normal instead halve their normal healing rate. For every hour that a character is continuously affected by this Tilt, he accrues a −1 penalty to all rolls. When that penalty hits −5 dice, he instead suffers 1 point of lethal damage per hour. Causing the Tilt: A character can suffer this Tilt from being in a frozen environment — whether he’s outside in the Arctic tundra or in a walk-in freezer. Inflicting the Tilt is reasonably straightforward: throw the victim into a freezing lake or lock him in a freezer for long enough and he’ll develop hypothermia. Ending the Tilt: The best way to escape the freezing cold is to find a source of warmth — either a building with working heating, or warm bundled clothing. A character who has hypothermia requires medical attention.</t>
+  </si>
+  <si>
+    <t>Extreme Heat (Environmental) Description: The character might be stumbling through the desert with the sun beating down on him, or running through the steam-tunnels surrounding an old boiler room. This Tilt can also be personal, the result of a debilitating fever that spikes his temperature far above the norm. Extreme heat is normally anything above 40 degrees Celsius (104 degrees Fahrenheit) — this includes both environmental temperature and internal body temperature due to fever. Effect: When the temperature is far above normal, characters can’t heal bashing damage — the extreme temperature deals damage at the same rate normal characters heal it (a cut might heal, but it’s replaced by sunburn or sunstroke). Supernatural beings and characters who heal faster than normal instead halve their normal healing rate. For every hour that a character is continuously affected by this Tilt, he accrues a −1 penalty to all rolls. When that penalty hits −5 dice, he instead suffers a point of lethal damage per hour. Causing the Tilt: This Tilt is usually caused by environmental factors — being out at noon in the desert or spending too long in a sauna or forge. Even a fever is the result of an infection, rather than something that an opponent can force on a character. It’s possible to create this Tilt on a given character: securing someone to a chair right next to an old, inefficient boiler, or stranding them in the desert far from any shade. Ending the Tilt: The key to ending this Tilt is simple: get out of the heat. In a desert or similar environment, finding shade is paramount. Elsewhere, the character needs to escape whatever is causing the abnormal temperatures.</t>
+  </si>
+  <si>
+    <t>Flooded (Environmental) Description: Some liquid — brackish water, mud, gore, or raw sewage — is high enough to impede the character’s progress. Effect: Each foot of liquid inflicts a −2 penalty to all Physical dice pools. If the water goes up over her head, a character has to swim (Dexterity + Athletics) with a penalty appropriate for the speed of flooding. Alternatively, she can try to hold her breath (“Holding Breath,” p. 49 of the World of Darkness Rulebook) if she cannot get her head above the rising waters. Causing the Tilt: Normally, this Tilt is the result of heavy rain, sudden snowmelt, or a broken water main. Characters can cause this Tilt by smashing up a water heater or blowing up a small dam. Some supernatural creatures may be able to call floods down onto a region. Ending the Tilt: Characters can escape flooding by getting to high ground, which is enough to mitigate this Tilt. A long-term fix would require draining the floodwaters, but each flood requires its own solution.</t>
+  </si>
+  <si>
+    <t>Heavy Rain (Environmental) Description: Torrential rain lashes down in knives, bouncing high off the sidewalk. The sound of rain on the ground is a constant hammering rumble that goes on without end, like dropping ball bearings on a tin roof. Thick gray curtains of water obscure vision. Effect: Heavy rains — approaching tropical storm levels or worse — cause a Perception penalty of −3 dice to both vision and hearing. Rain’s hard to see through, but it’s also loud. If the rains carry on for an hour or more, the Flooded Tilt will soon follow. This Tilt is often accompanied by Heavy Winds; a character trapped out in Heavy Rains might come under the effects of Extreme Cold. Causing the Tilt: Short of supernatural power or a fleet of cloud-seeding aircraft, Heavy Rain is the result of natural weather patterns. Ending the Tilt: The best way out of the rain is to get indoors. Unless it’s the start of some sodden apocalypse, the characters can wait for the weather to ease.</t>
+  </si>
+  <si>
+    <t>Heavy Winds (Environmental) Description: Howling winds buffet at the characters, whipping street furniture into the air, tearing the roofs from buildings. Powerful winds can toss cars around like toys. Anyone out in the winds feels like they’re taking a beating just for walking down the street. Effect: Heavy winds are loud, so characters suffer a −3 modifier to aural Perception rolls. Also the wind inflicts a penalty to all Physical rolls when out in the winds — including Drive rolls. Grade the wind from one to five — one is tropical storm level (around 40 MPH), three is hurricane level (around 80 MPH), and five is tornado level (150+ MPH). This is the penalty applied to Physical dice rolls. Characters outside in the maelstrom take damage from flying debris, taking bashing damage each turn equal to the wind’s rating. Characters can make a reflexive Dexterity + Athletics roll to avoid damage. the Tilt: Heavy winds are a fact of life, from siroccos in the desert to tornados in the Midwest to wind shears everywhere. Ending the Tilt: Getting out of the wind is the best way to end this Tilt. Sometimes that’s as easy as sheltering in an automobile — as long as nobody tries to drive. Buildings provide more permanent shelter.</t>
+  </si>
+  <si>
+    <t>Ice (Environmental) Description: The ground’s covered in a mirror-smooth layer of ice that sends wheels spinning and people’s feet flying out from under them. The ice could be so thin as to be nearly invisible or a thick layer that’s the only thing keeping the characters from sinking into a frozen lake. Effect: When a character can’t trust her footing, divide her Speed in half and all Physical rolls (and Defense) suffer a −2 penalty. Attempting to move at full Speed increases the Physical penalty to −4. Any dramatic failure on a Physical roll inflicts the Knocked Down Tilt. Driving on ice is a real pain — halve Acceleration and characters suffer a −5 penalty to Drive rolls. Causing the Tilt: This Tilt doesn’t just apply to icy conditions, but to any surface that’s slick and slippery, including a spill of industrial lubricant or just a really well polished wooden or linoleum floor. Characters can use a Dexterity + Crafts roll to cover an area in industrial cleaner or mix up cleaning chemicals into a lubricant. If the Extreme Cold Tilt is in effect, even covering the area with water would do the trick. Ending the Tilt: “Get off the ice” is good advice, but that can take work. Characters can use heat or fire to melt ice, or throw down copious quantities of salt or grit to increase traction.</t>
+  </si>
+  <si>
+    <t>Immobilized Description: Something holds the character fast, preventing him from moving. This could be a grappling opponent, a straightjacket wrapped with heavy chains, or a coffin secured on the outside with a padlock. Effect: The character can’t do anything but wriggle helplessly. He can’t apply Defense against incoming attacks and can’t take combat-related actions. If someone’s holding him down, he can spend a point of Willpower to deliver a head-butt or similar attack, but even that might not free him. Causing the Tilt: The usual way to inflict this Tilt is through the Restrain grappling move. This often uses material means to prevent the victim from moving, such as binding limbs with duct tape or zip-ties, tossing the victim into a car trunk or similar tight space, or applying painful holds and joint locks. Ending the Tilt: An Immobilized target can break free by escaping from a grapple or snapping whatever binds her. If grappled, the character can struggle as normal but can only select the Break Free move on a success. If held by an item, the character must make a Strength + Athletics roll penalized by the item’s Durability. If a character’s arms and legs are both bound, he suffers a −2 penalty; this increases to −4 if he’s hog-tied. On a success, he snaps the bindings or breaks free. Each roll, successful or not, deals a point of bashing damage.</t>
+  </si>
+  <si>
+    <t>Insane Description: The character suffers from a panic attack, sudden imbalance, or a full-on psychotic break. Her pulse races and her mind cannot focus. The world’s an unstable place, and she’s unable to keep her balance. Effect: Someone suffering a psychotic break isn’t the sort of person to go down without a fight. Her stated intent might be irrational or just plain impossible, and she might have fewer ethical problems with using extreme violence to get what she wants. The character gains a +1 bonus to all combat rolls, but takes actions after everyone else (if two characters suffer from the Insane Tilt, both act after everyone else but compare Initiative as normal). A character suffering from this Tilt may spend Willpower, but the cost is 2 dots instead of 1 for the same effect. Causing the Tilt: Faced with extraordinary circumstances, any character with an appropriate Condition may gain the Insane Tilt. The Storyteller can call for a Resolve + Composure roll to resist a general anxiety that gnaws at the character’s mind; if the character fails, he gains the Tilt. If the character witnesses something truly horrific — a daughter watches her father walk to the end of the garden and shoot himself in the head, smiling all the while; a man stumbles into the wrong office at work and sees his co-workers feasting on the intern’s organs; a solder sees her unit gunned down by a sniper while she can do nothing — the Storyteller can rule that the Tilt is unavoidable. The Insane Tilt can also be triggered by a breaking point. If a character fails a breaking point role during combat, the Storyteller may apply the Insane Tilt then as well. A character can work to inspire another character’s madness in order to cause this Tilt. She could orchestrate events that she hopes will provoke a psychotic break, but that’s amateur hour. A professional swaps out her victim’s meds, giving stimulants just as his bipolar cycle ticks into mania, or dosing a paranoid or schizophrenic with hallucinogenic drugs. Some supernatural creatures possess mind-affecting powers that can apply this Tilt, even to characters who do not have an appropriate Condition. Ending the Tilt: The specific effects of this Tilt don’t normally last beyond the end of the scene. A character can try to force her mind to a state of balance, but it’s not easy. She must sit and focus on blocking out the craziness. She rolls Resolve + Composure as an instant action contested by a dice pool of (10 – her Willpower). She can’t take any other actions that turn and doesn’t apply Defense against any attacks.</t>
+  </si>
+  <si>
+    <t>Insensate Description: The character shuts down, either due to extreme fear or sudden pleasure. He may huddle in a corner, cringe away from sudden noises, or stare into space as waves of pleasure lap over him. Effect: The character can’t take any actions until the Tilt is resolved. He can apply Defense to incoming attacks, and if he takes any damage from an attack, he’s knocked free of whatever fogged his brain. Causing the Tilt: Several supernatural powers can leave their victim in a trance-like state of heightened emotion, whether it’s a vampire’s mind-affecting tricks or the pants-shitting terror of witnessing a werewolf take on an inhuman form. A truly heroic amount of alcohol or a hallucinogenic drug might have similar effects; administering such a drug is a Dexterity + Weaponry attack, suffering a −1 modifier for the improvised weapon. Ending the Tilt: The Tilt wears off at the end of the scene. The victim can spend a point of Willpower before then to act normally for one turn. A successful attack will also end the Tilt. If a character has been knocked insensible by drugs, this Tilt is replaced with the Drugged Tilt when it ends.</t>
+  </si>
+  <si>
+    <t>Knocked Down Description: Something knocks the character to the floor, either toppling her with a powerful blow to the chest or taking one of her legs out from under her. Effect: The character is knocked off her feet. If she hasn’t already acted this turn, she loses her action. Once she’s on the ground, a character is considered prone (see “Going Prone,” pp. 164–165 of the World of Darkness Rulebook). The character can still apply Defense against incoming attacks, and can attempt to attack from the ground at a −2 penalty. Causing the Tilt: Some weapons list “Knockdown” as a special effect of a damaging hit. Otherwise, a melee weapon with a damage modifier of +2 or greater, or a firearm with a damage modifier of +3 or more can be used to knock a character down with the force of the blow. Alternatively, a melee weapon or unarmed attack can knock an opponent down with a targeted attack against the legs (–2 modifier). The attacker declares that he wants to knock his opponent down and halves the total damage done (rounding down). On a successful attack, the target is knocked down. Ending the Tilt: The easiest way to end this Tilt is to stand up, which takes an action. A character affected by this Tilt who hasn’t yet acted can make a Dexterity + Athletics roll, minus any weapon modifier, instead of her normal action. If successful, she avoids the effects of this Tilt altogether. On a failure, she falls over and the Tilt applies as normal.</t>
+  </si>
+  <si>
+    <t>Leg Wrack Description: Your leg feels like it’s going to snap clean off whenever you move; when you stop moving, you feel a burning numbness that encourages you to avoid moving. Effect: If your leg is broken, sprained, or dislocated, halve your Speed and suffer a −2 penalty on Physical rolls that require movement (and Defense). If both of your legs are wracked, you fall over — taking the Knocked Down Tilt — and cannot get up. Your Speed is reduced to 1; if you want to move at all, you cannot take any other action. Physical rolls that require movement are reduced to a chance die. Causing the Tilt: Some supernatural powers can cripple a victim’s limbs or break bone with a touch. A character can have his leg knocked out by a targeted blow to the leg (–2 penalty) that deals more damage than the character’s Stamina. Ending the Tilt: If the Tilt is inflicted as a result of an attack, mark an ‘x’ under the leftmost Health box inflicted in that attack. The Tilt ends when that damage that caused it has healed. If the damage that inflicts this Tilt is aggravated, the character loses use of his leg permanently.</t>
+  </si>
+  <si>
+    <t>Poisoned Description: You’ve got poison inside you. It’s tearing you apart from the inside; burning like acid in your gut and making your head swim. Effect: This Tilt applies a general sense of being poisoned to a character without worrying about Toxicity during combat. For the purposes of this Tilt, a poison is either “moderate” or “grave” — a moderate poison causes 1 point of bashing damage per turn of combat, while a grave poison ups that to 1 point of lethal damage per turn. If the Storyteller cares to continue the effects of the poison outside of combat, he can apply the standard rules for handling poisons and toxins when combat is complete. Causing the Tilt: It’s possible for a character to not know that he’s been poisoned. It could be as innocuous as switching drinks with a pretty girl who is the target of a mob hit, or as simple as walking into a house with a carbon monoxide leak. That said, the main time poison comes up in combat is when one combatant inflicts it on another. Injecting your opponent with a syringe full of drain cleaner or snake venom is a Dexterity + Weaponry attack, suffering a −1 modifier for the improvised weapon. Ending the Tilt: Short of immediate medical attention — and how many fights take place in an emergency room? — all a victim can do is struggle on. Roll Stamina + Resolve as a reflexive action each turn that your character is poisoned. If your character intends to act (meaning, takes a non-reflexive action), the roll suffers a −3 penalty. Success counteracts the damage for one turn only.</t>
+  </si>
+  <si>
+    <t>Sick Description: Your stomach churns. You retch and heave but only succeed in bringing up bile. Sweat beads on your brow as you spike a fever. Your muscles ache with every movement. You’re wracked with hot and cold flushes as a sickness gnaws away at your insides. Effect: This Tilt applies a general sickness to a character without worrying about the specific illness. For the purposes of this Tilt, a sickness is either “moderate” or “grave.” A moderate sickness, such as a cold, asthma, the flu, or just a bad hangover, causes a −1 penalty to all actions during combat. That penalty increases by one every two turns (the first two turns, the character suffers a −1 penalty, the next two turns the penalty is −2, and so on up to a maximum of −5 dice on turn 9). A grave sickness, such as pneumonia, heavy metal poisoning, or aggressive cancer, inflicts the same dice pool penalties as a mild sickness. In addition, however, the physical stress of fighting or even defending oneself from an attacker while gravely ill inflicts 1 point of bashing damage per turn of combat. Causing the Tilt: It’s not easy to deliberately make someone sick. Sure, if you can get your hands on a vial of smallpox or deliberately use a disease you’ve got to make someone sick (a breaking point, especially in the case of grave diseases like AIDS), then you’ve got a reasonable chance. Some supernatural creatures have abilities that can inflict diseases on others. Aside from that, you’ve just got to expose your opponent to the sickness long before you fight and hope for the best. Ending the Tilt: This Tilt reflects the effects of sickness as it specifically applies to combat. Outside of combat, use the existing system for diseases (World of Darkness Rulebook, p. 176). The penalties inflicted by this Tilt fade at a rate of one point per turn once the character has a chance to rest, but any damage inflicted remains until the character can heal.</t>
+  </si>
+  <si>
+    <t>Stunned Description: Your character is dazed and unable to think straight. Maybe her vision blurs. If she’s stunned as a result of a blow to the head, she’s probably got a concussion. Effect: A character with the Stunned Tilt loses her next action, and halves her Defense until she can next act. Causing the Tilt: A character can be stunned by any attack that does at least as much damage as her Size in a single hit. Some weapons have a “stun” special ability. These double the weapon modifier only for the purposes of determining whether the attacker inflicts the Stunned Tilt. Attacks against the target’s head (see “Specified Targets,” p. 203) count the character’s Size as one lower for the purposes of this Tilt. The Storyteller might determine that additional effects cause this Tilt, like being caught in the blast area of an explosion (World of Darkness Rulebook, p. 178). Ending the Tilt: The effects of this Tilt normally only last for a single turn. The character can end the Tilt during her own action by reflexively spending a point of Willpower to gather her wits, though she suffers a –3 modifier to any actions she takes that turn.</t>
+  </si>
+  <si>
+    <t>Arm Wrack Description: Your arm burns with pain and then goes numb. It could be dislocated, sprained, or broken: whatever’s wrong with it, you can’t move your limb. Effect: If your arm’s broken or otherwise busted, you drop whatever you’re holding in that arm and can’t use it to attack opponents — unless you’ve got the Ambidextrous Merit, you suffer off-hand penalties for any rolls that require manual dexterity. If this effect spreads to both limbs, you’re down to a chance die on any rolls that require manual dexterity, and −3 to all other Physical actions. Causing the Tilt: Some supernatural powers can cripple a victim’s limbs or break bones with a touch. A character can have his arm knocked out by a targeted blow to the arm (–2 penalty) that deals more damage than the character’s Stamina. A targeted blow to the hand inflicts this Tilt if it does any damage. Ending the Tilt: If the Tilt is inflicted as a result of an attack, mark an ‘x’ under the leftmost Health box inflicted in that attack; the Tilt ends when the damage that caused it has healed. If aggravated damage inflicts this Tilt, the character loses the use of his arm (or straight up loses his arm) permanently.</t>
   </si>
 </sst>
 </file>
@@ -498,24 +585,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC000"/>
-          <bgColor rgb="FF000000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -794,10 +864,10 @@
   <dimension ref="A1:G65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomRight" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,11 +921,11 @@
         <v/>
       </c>
       <c r="F2" s="7" t="str">
-        <f>MID(A2,FIND("Resolution: ",A2)+12,FIND("Beat: ",A2)-FIND("Resolution: ",A2)-12)</f>
+        <f t="shared" ref="F2:F33" si="0">MID(A2,FIND("Resolution: ",A2)+12,FIND("Beat: ",A2)-FIND("Resolution: ",A2)-12)</f>
         <v xml:space="preserve">Regain a dot of Integrity, lose another dot of Integrity, or achieve an exceptional success on a breaking point. </v>
       </c>
       <c r="G2" s="7" t="str">
-        <f>RIGHT(A2,LEN(A2)-FIND("Beat: ",A2)-5)</f>
+        <f t="shared" ref="G2:G33" si="1">RIGHT(A2,LEN(A2)-FIND("Beat: ",A2)-5)</f>
         <v>Your character chooses to get a fix rather than fulfill an obligation.</v>
       </c>
     </row>
@@ -879,11 +949,11 @@
         <v/>
       </c>
       <c r="F3" s="7" t="str">
-        <f>MID(A3,FIND("Resolution: ",A3)+12,FIND("Beat: ",A3)-FIND("Resolution: ",A3)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">You regain your memory and learn the truth. Depending on the circumstances, this may constitute a breaking point. </v>
       </c>
       <c r="G3" s="7" t="str">
-        <f>RIGHT(A3,LEN(A3)-FIND("Beat: ",A3)-5)</f>
+        <f t="shared" si="1"/>
         <v>Something problematic arises, such as a forgotten arrest warrant or old enemy.</v>
       </c>
     </row>
@@ -906,11 +976,11 @@
         <v>Succumbing to Lunacy.</v>
       </c>
       <c r="F4" s="7" t="str">
-        <f>MID(A4,FIND("Resolution: ",A4)+12,FIND("Beat: ",A4)-FIND("Resolution: ",A4)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Your character achieves an exceptional success against the source of her rage, or the source of her rage achieves an exceptional success against her. Alternatively, she can suffer a breaking point for harming an innocent person. </v>
       </c>
       <c r="G4" s="7" t="str">
-        <f>RIGHT(A4,LEN(A4)-FIND("Beat: ",A4)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -933,11 +1003,11 @@
         <v>Compulsion from supernatural powers.</v>
       </c>
       <c r="F5" s="7" t="str">
-        <f>MID(A5,FIND("Resolution: ",A5)+12,FIND("Beat: ",A5)-FIND("Resolution: ",A5)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">The source of the Condition leaves your character’s presence, or stops inflicting Lunacy. </v>
       </c>
       <c r="G5" s="7" t="str">
-        <f>RIGHT(A5,LEN(A5)-FIND("Beat: ",A5)-5)</f>
+        <f t="shared" si="1"/>
         <v>Your character takes an action that serves the demands of the Condition’s source.</v>
       </c>
     </row>
@@ -961,11 +1031,11 @@
         <v>Low Harmony, violating a totem’s ban, or a number of Gifts and rites.</v>
       </c>
       <c r="F6" s="7" t="str">
-        <f>MID(A6,FIND("Resolution: ",A6)+12,FIND("Beat: ",A6)-FIND("Resolution: ",A6)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">If the ban is not persistent then the Condition is resolved when your character’s adherence to the ban causes her a significant setback. Otherwise, the resolution depends on the nature of the ban. </v>
       </c>
       <c r="G6" s="7" t="str">
-        <f>RIGHT(A6,LEN(A6)-FIND("Beat: ",A6)-5)</f>
+        <f t="shared" si="1"/>
         <v>Your character’s adherence to the ban causes her a significant setback.</v>
       </c>
     </row>
@@ -988,11 +1058,11 @@
         <v>A number of Gifts and abilities that kindle a form of the Uratha’s rage in non-werewolves.</v>
       </c>
       <c r="F7" s="7" t="str">
-        <f>MID(A7,FIND("Resolution: ",A7)+12,FIND("Beat: ",A7)-FIND("Resolution: ",A7)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">The character becomes unconscious. There are no targets left to attack. The source of the Lunacy leaves your character’s presence, or stops inflicting Lunacy. </v>
       </c>
       <c r="G7" s="7" t="str">
-        <f>RIGHT(A7,LEN(A7)-FIND("Beat: ",A7)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1016,11 +1086,11 @@
         <v/>
       </c>
       <c r="F8" s="7" t="str">
-        <f>MID(A8,FIND("Resolution: ",A8)+12,FIND("Beat: ",A8)-FIND("Resolution: ",A8)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Your character regains her sight. </v>
       </c>
       <c r="G8" s="7" t="str">
-        <f>RIGHT(A8,LEN(A8)-FIND("Beat: ",A8)-5)</f>
+        <f t="shared" si="1"/>
         <v>Your character encounters a limitation or difficulty that inconveniences her.</v>
       </c>
     </row>
@@ -1044,11 +1114,11 @@
         <v/>
       </c>
       <c r="F9" s="7" t="str">
-        <f>MID(A9,FIND("Resolution: ",A9)+12,FIND("Beat: ",A9)-FIND("Resolution: ",A9)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">The bonded animal dies or is otherwise parted from the character. </v>
       </c>
       <c r="G9" s="7" t="str">
-        <f>RIGHT(A9,LEN(A9)-FIND("Beat: ",A9)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1072,11 +1142,11 @@
         <v/>
       </c>
       <c r="F10" s="7" t="str">
-        <f>MID(A10,FIND("Resolution: ",A10)+12,FIND("Beat: ",A10)-FIND("Resolution: ",A10)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Regain a dot of Integrity, lose another dot of Integrity, or achieve an exceptional success on a breaking point. </v>
       </c>
       <c r="G10" s="7" t="str">
-        <f>RIGHT(A10,LEN(A10)-FIND("Beat: ",A10)-5)</f>
+        <f t="shared" si="1"/>
         <v>You back down from a confrontation or fail a roll due to this Condition.</v>
       </c>
     </row>
@@ -1099,11 +1169,11 @@
         <v>Facing overwhelming sensory information, some Gifts.</v>
       </c>
       <c r="F11" s="7" t="str">
-        <f>MID(A11,FIND("Resolution: ",A11)+12,FIND("Beat: ",A11)-FIND("Resolution: ",A11)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Take half an hour to clear the mind. Take any amount of lethal damage. </v>
       </c>
       <c r="G11" s="7" t="str">
-        <f>RIGHT(A11,LEN(A11)-FIND("Beat: ",A11)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1127,11 +1197,11 @@
         <v>Politics, Socialize</v>
       </c>
       <c r="F12" s="7" t="str">
-        <f>MID(A12,FIND("Resolution: ",A12)+12,FIND("Beat: ",A12)-FIND("Resolution: ",A12)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">The character loses her membership or otherwise loses her standing with the group. </v>
       </c>
       <c r="G12" s="7" t="str">
-        <f>RIGHT(A12,LEN(A12)-FIND("Beat: ",A12)-5)</f>
+        <f t="shared" si="1"/>
         <v>The character is asked to perform a favor for the group that inconveniences her.</v>
       </c>
     </row>
@@ -1154,11 +1224,11 @@
         <v>Having another character determine her superiority to yours, some supernatural powers.</v>
       </c>
       <c r="F13" s="7" t="str">
-        <f>MID(A13,FIND("Resolution: ",A13)+12,FIND("Beat: ",A13)-FIND("Resolution: ",A13)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">The character successfully injures or intimidates the character who inflicted the Condition. The character regains Willpower through her Blood Archetype. </v>
       </c>
       <c r="G13" s="7" t="str">
-        <f>RIGHT(A13,LEN(A13)-FIND("Beat: ",A13)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1181,11 +1251,11 @@
         <v>Flaring Cunning Renown brands with Essence.</v>
       </c>
       <c r="F14" s="7" t="str">
-        <f>MID(A14,FIND("Resolution: ",A14)+12,FIND("Beat: ",A14)-FIND("Resolution: ",A14)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Once at least one individual has used the +2 bonus, you may choose to shed this Condition to add the character’s Cunning Renown in automatic successes to any Larceny, Stealth, or Subterfuge action, even if she rolls no successes. </v>
       </c>
       <c r="G14" s="7" t="str">
-        <f>RIGHT(A14,LEN(A14)-FIND("Beat: ",A14)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1208,11 +1278,11 @@
         <v>Succumbing to Lunacy.</v>
       </c>
       <c r="F15" s="7" t="str">
-        <f>MID(A15,FIND("Resolution: ",A15)+12,FIND("Beat: ",A15)-FIND("Resolution: ",A15)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Your character reaffirms her sense of reality by expending Willpower and learning something new, something deeply secret about the source of the Condition. </v>
       </c>
       <c r="G15" s="7" t="str">
-        <f>RIGHT(A15,LEN(A15)-FIND("Beat: ",A15)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1235,11 +1305,11 @@
         <v>Attempting something momentous and failing at the last hurdle, some Gifts.</v>
       </c>
       <c r="F16" s="7" t="str">
-        <f>MID(A16,FIND("Resolution: ",A16)+12,FIND("Beat: ",A16)-FIND("Resolution: ",A16)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">The character achieves an exceptional success on an attack roll, wins a combat, or survives a combat unharmed. A week passes. </v>
       </c>
       <c r="G16" s="7" t="str">
-        <f>RIGHT(A16,LEN(A16)-FIND("Beat: ",A16)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1263,11 +1333,11 @@
         <v/>
       </c>
       <c r="F17" s="7" t="str">
-        <f>MID(A17,FIND("Resolution: ",A17)+12,FIND("Beat: ",A17)-FIND("Resolution: ",A17)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Your character indulges her addiction. </v>
       </c>
       <c r="G17" s="7" t="str">
-        <f>RIGHT(A17,LEN(A17)-FIND("Beat: ",A17)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1292,11 +1362,11 @@
         <v/>
       </c>
       <c r="F18" s="7" t="str">
-        <f>MID(A18,FIND("Resolution: ",A18)+12,FIND("Beat: ",A18)-FIND("Resolution: ",A18)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">The character’s disability is cured by mundane or supernatural means. </v>
       </c>
       <c r="G18" s="7" t="str">
-        <f>RIGHT(A18,LEN(A18)-FIND("Beat: ",A18)-5)</f>
+        <f t="shared" si="1"/>
         <v>Your character’s limited mobility inconveniences your character and makes her slow to respond.</v>
       </c>
     </row>
@@ -1319,11 +1389,11 @@
         <v>Dramatically failing in a contested tracking action.</v>
       </c>
       <c r="F19" s="7" t="str">
-        <f>MID(A19,FIND("Resolution: ",A19)+12,FIND("Beat: ",A19)-FIND("Resolution: ",A19)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">A hunter locates your character and harms him — physically, mentally, or socially — raising his awareness of his carelessness. </v>
       </c>
       <c r="G19" s="7" t="str">
-        <f>RIGHT(A19,LEN(A19)-FIND("Beat: ",A19)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1347,11 +1417,11 @@
         <v/>
       </c>
       <c r="F20" s="7" t="str">
-        <f>MID(A20,FIND("Resolution: ",A20)+12,FIND("Beat: ",A20)-FIND("Resolution: ",A20)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">The character’s secret is made public, or the character does whatever is necessary to make sure it never comes to light. </v>
       </c>
       <c r="G20" s="7" t="str">
-        <f>RIGHT(A20,LEN(A20)-FIND("Beat: ",A20)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1374,11 +1444,11 @@
         <v>Some Gifts.</v>
       </c>
       <c r="F21" s="7" t="str">
-        <f>MID(A21,FIND("Resolution: ",A21)+12,FIND("Beat: ",A21)-FIND("Resolution: ",A21)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">The character empties her Essence pool or earths the overloaded energies through a powerful spiritual conduit. </v>
       </c>
       <c r="G21" s="7" t="str">
-        <f>RIGHT(A21,LEN(A21)-FIND("Beat: ",A21)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1401,11 +1471,11 @@
         <v>Sleep deprivation or persistent nightmares, some Gifts.</v>
       </c>
       <c r="F22" s="7" t="str">
-        <f>MID(A22,FIND("Resolution: ",A22)+12,FIND("Beat: ",A22)-FIND("Resolution: ",A22)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">The character has restful sleep. </v>
       </c>
       <c r="G22" s="7" t="str">
-        <f>RIGHT(A22,LEN(A22)-FIND("Beat: ",A22)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1429,11 +1499,11 @@
         <v/>
       </c>
       <c r="F23" s="7" t="str">
-        <f>MID(A23,FIND("Resolution: ",A23)+12,FIND("Beat: ",A23)-FIND("Resolution: ",A23)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Regain a dot of Integrity, lose another dot of Integrity, or achieve an exceptional success on a breaking point. </v>
       </c>
       <c r="G23" s="7" t="str">
-        <f>RIGHT(A23,LEN(A23)-FIND("Beat: ",A23)-5)</f>
+        <f t="shared" si="1"/>
         <v>You enter a fugue state as described above.</v>
       </c>
     </row>
@@ -1456,11 +1526,11 @@
         <v>Flaring Glory Renown brands with Essence.</v>
       </c>
       <c r="F24" s="7" t="str">
-        <f>MID(A24,FIND("Resolution: ",A24)+12,FIND("Beat: ",A24)-FIND("Resolution: ",A24)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Once at least one individual has used the +2 bonus, you may choose to shed this Condition to add your character’s Glory Renown in automatic successes to any Expression, Intimidation, or Persuasion action, even if she rolls no successes. </v>
       </c>
       <c r="G24" s="7" t="str">
-        <f>RIGHT(A24,LEN(A24)-FIND("Beat: ",A24)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1483,11 +1553,11 @@
         <v>Encountering a breaking point</v>
       </c>
       <c r="F25" s="8" t="str">
-        <f>MID(A25,FIND("Resolution: ",A25)+12,FIND("Beat: ",A25)-FIND("Resolution: ",A25)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">The character confesses his crimes and makes restitution for whatever he did. </v>
       </c>
       <c r="G25" s="8" t="str">
-        <f>RIGHT(A25,LEN(A25)-FIND("Beat: ",A25)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1511,11 +1581,11 @@
         <v/>
       </c>
       <c r="F26" s="8" t="str">
-        <f>MID(A26,FIND("Resolution: ",A26)+12,FIND("Beat: ",A26)-FIND("Resolution: ",A26)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">The character confesses his crimes and makes restitution for whatever he did. </v>
       </c>
       <c r="G26" s="8" t="str">
-        <f>RIGHT(A26,LEN(A26)-FIND("Beat: ",A26)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1538,11 +1608,11 @@
         <v>Flaring Honor Renown brands with Essence.</v>
       </c>
       <c r="F27" s="7" t="e">
-        <f>MID(A27,FIND("Resolution: ",A27)+12,FIND("Beat: ",A27)-FIND("Resolution: ",A27)-12)</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="G27" s="7" t="e">
-        <f>RIGHT(A27,LEN(A27)-FIND("Beat: ",A27)-5)</f>
+        <f t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
     </row>
@@ -1567,11 +1637,11 @@
         <v>Academics, Investigation, Occult, Science</v>
       </c>
       <c r="F28" s="7" t="str">
-        <f>MID(A28,FIND("Resolution: ",A28)+12,FIND("Beat: ",A28)-FIND("Resolution: ",A28)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Your character uses her research to gain information; the Condition is resolved as described above. </v>
       </c>
       <c r="G28" s="7" t="str">
-        <f>RIGHT(A28,LEN(A28)-FIND("Beat: ",A28)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1594,11 +1664,11 @@
         <v>Exceptional success with Crafts or Expression, the Inspiring Merit.</v>
       </c>
       <c r="F29" s="8" t="str">
-        <f>MID(A29,FIND("Resolution: ",A29)+12,FIND("Beat: ",A29)-FIND("Resolution: ",A29)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">You spend inspiration to spur yourself to greater success, resolving the Condition as described above. </v>
       </c>
       <c r="G29" s="8" t="str">
-        <f>RIGHT(A29,LEN(A29)-FIND("Beat: ",A29)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1622,11 +1692,11 @@
         <v>Crafts, Expression</v>
       </c>
       <c r="F30" s="8" t="str">
-        <f>MID(A30,FIND("Resolution: ",A30)+12,FIND("Beat: ",A30)-FIND("Resolution: ",A30)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">You spend inspiration to spur yourself to greater success, resolving the Condition as described above. </v>
       </c>
       <c r="G30" s="8" t="str">
-        <f>RIGHT(A30,LEN(A30)-FIND("Beat: ",A30)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1649,11 +1719,11 @@
         <v>Exceptional success in a tracking action.</v>
       </c>
       <c r="F31" s="7" t="str">
-        <f>MID(A31,FIND("Resolution: ",A31)+12,FIND("Beat: ",A31)-FIND("Resolution: ",A31)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">The hunter deals damage or otherwise hurts her prey, either through attack, social manipulation or stealing her possessions. </v>
       </c>
       <c r="G31" s="7" t="str">
-        <f>RIGHT(A31,LEN(A31)-FIND("Beat: ",A31)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1676,11 +1746,11 @@
         <v>The Elodoth’s Isolating hunter aspect.</v>
       </c>
       <c r="F32" s="7" t="str">
-        <f>MID(A32,FIND("Resolution: ",A32)+12,FIND("Beat: ",A32)-FIND("Resolution: ",A32)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Suffer a wound penalty from lethal or aggravated wounds, or suffer a lethal wound in your character’s last Health box. </v>
       </c>
       <c r="G32" s="7" t="str">
-        <f>RIGHT(A32,LEN(A32)-FIND("Beat: ",A32)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1703,11 +1773,11 @@
         <v>Another character finds out damning information about your character.</v>
       </c>
       <c r="F33" s="8" t="str">
-        <f>MID(A33,FIND("Resolution: ",A33)+12,FIND("Beat: ",A33)-FIND("Resolution: ",A33)-12)</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve">Your character may either resolve the Condition by complying with a request as above, or if you apply the Leveraged condition to the specified individual. </v>
       </c>
       <c r="G33" s="8" t="str">
-        <f>RIGHT(A33,LEN(A33)-FIND("Beat: ",A33)-5)</f>
+        <f t="shared" si="1"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1731,11 +1801,11 @@
         <v>Empathy, Persuasion, Subterfuge</v>
       </c>
       <c r="F34" s="8" t="str">
-        <f>MID(A34,FIND("Resolution: ",A34)+12,FIND("Beat: ",A34)-FIND("Resolution: ",A34)-12)</f>
+        <f t="shared" ref="F34:F65" si="2">MID(A34,FIND("Resolution: ",A34)+12,FIND("Beat: ",A34)-FIND("Resolution: ",A34)-12)</f>
         <v xml:space="preserve">Your character may either resolve the Condition by complying with a request as above, or if you apply the Leveraged condition to the specified character. </v>
       </c>
       <c r="G34" s="8" t="str">
-        <f>RIGHT(A34,LEN(A34)-FIND("Beat: ",A34)-5)</f>
+        <f t="shared" ref="G34:G65" si="3">RIGHT(A34,LEN(A34)-FIND("Beat: ",A34)-5)</f>
         <v>n/a</v>
       </c>
     </row>
@@ -1759,11 +1829,11 @@
         <v/>
       </c>
       <c r="F35" s="7" t="str">
-        <f>MID(A35,FIND("Resolution: ",A35)+12,FIND("Beat: ",A35)-FIND("Resolution: ",A35)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Your character gives up on reaching her intended destination, or she successfully navigates as described above. </v>
       </c>
       <c r="G35" s="7" t="str">
-        <f>RIGHT(A35,LEN(A35)-FIND("Beat: ",A35)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1786,11 +1856,11 @@
         <v>Dramatic failure on a tracking action.</v>
       </c>
       <c r="F36" s="7" t="str">
-        <f>MID(A36,FIND("Resolution: ",A36)+12,FIND("Beat: ",A36)-FIND("Resolution: ",A36)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">The hunter succeeds in tracking her quarry despite the penalty, regaining faith in her ability. </v>
       </c>
       <c r="G36" s="7" t="str">
-        <f>RIGHT(A36,LEN(A36)-FIND("Beat: ",A36)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1814,11 +1884,11 @@
         <v>Some Gifts.</v>
       </c>
       <c r="F37" s="7" t="str">
-        <f>MID(A37,FIND("Resolution: ",A37)+12,FIND("Beat: ",A37)-FIND("Resolution: ",A37)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">The character investigates the lure and encounters a threat. An hour passes. </v>
       </c>
       <c r="G37" s="7" t="str">
-        <f>RIGHT(A37,LEN(A37)-FIND("Beat: ",A37)-5)</f>
+        <f t="shared" si="3"/>
         <v>Your character causes disruption and confusion amongst her allies.</v>
       </c>
     </row>
@@ -1841,11 +1911,11 @@
         <v>Supernatural visions, losing a dot of Integrity.</v>
       </c>
       <c r="F38" s="8" t="str">
-        <f>MID(A38,FIND("Resolution: ",A38)+12,FIND("Beat: ",A38)-FIND("Resolution: ",A38)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Regain a dot of Integrity, lose another dot of Integrity, or achieve an exceptional success on a breaking point. </v>
       </c>
       <c r="G38" s="8" t="str">
-        <f>RIGHT(A38,LEN(A38)-FIND("Beat: ",A38)-5)</f>
+        <f t="shared" si="3"/>
         <v>The character fails a roll because of this Condition.</v>
       </c>
     </row>
@@ -1869,11 +1939,11 @@
         <v/>
       </c>
       <c r="F39" s="8" t="str">
-        <f>MID(A39,FIND("Resolution: ",A39)+12,FIND("Beat: ",A39)-FIND("Resolution: ",A39)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Regain a dot of Integrity, lose another dot of Integrity, or achieve an exceptional success on a breaking point. </v>
       </c>
       <c r="G39" s="8" t="str">
-        <f>RIGHT(A39,LEN(A39)-FIND("Beat: ",A39)-5)</f>
+        <f t="shared" si="3"/>
         <v>The character fails a roll because of this Condition.</v>
       </c>
     </row>
@@ -1896,11 +1966,11 @@
         <v>Being bitten by a werewolf using some Gifts.</v>
       </c>
       <c r="F40" s="7" t="str">
-        <f>MID(A40,FIND("Resolution: ",A40)+12,FIND("Beat: ",A40)-FIND("Resolution: ",A40)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Resisting the change. The sun rises after changing. The character poisons herself with wolfsbane. </v>
       </c>
       <c r="G40" s="7" t="str">
-        <f>RIGHT(A40,LEN(A40)-FIND("Beat: ",A40)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1924,11 +1994,11 @@
         <v/>
       </c>
       <c r="F41" s="7" t="str">
-        <f>MID(A41,FIND("Resolution: ",A41)+12,FIND("Beat: ",A41)-FIND("Resolution: ",A41)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">The character regains her voice through mundane or supernatural means. </v>
       </c>
       <c r="G41" s="7" t="str">
-        <f>RIGHT(A41,LEN(A41)-FIND("Beat: ",A41)-5)</f>
+        <f t="shared" si="3"/>
         <v>Your character suffers a limitation or communication difficulty that heightens immediate danger.</v>
       </c>
     </row>
@@ -1951,11 +2021,11 @@
         <v>The Ithaeur’s Mystic hunter aspect.</v>
       </c>
       <c r="F42" s="7" t="str">
-        <f>MID(A42,FIND("Resolution: ",A42)+12,FIND("Beat: ",A42)-FIND("Resolution: ",A42)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Suffer a wound penalty from lethal or aggravated wounds, or suffer a lethal wound in your character’s last Health box. </v>
       </c>
       <c r="G42" s="7" t="str">
-        <f>RIGHT(A42,LEN(A42)-FIND("Beat: ",A42)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -1979,11 +2049,11 @@
         <v>Subterfuge, Socialize</v>
       </c>
       <c r="F43" s="7" t="str">
-        <f>MID(A43,FIND("Resolution: ",A43)+12,FIND("Beat: ",A43)-FIND("Resolution: ",A43)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">The story is debunked or the character’s name is cleared. </v>
       </c>
       <c r="G43" s="7" t="str">
-        <f>RIGHT(A43,LEN(A43)-FIND("Beat: ",A43)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2007,11 +2077,11 @@
         <v/>
       </c>
       <c r="F44" s="7" t="str">
-        <f>MID(A44,FIND("Resolution: ",A44)+12,FIND("Beat: ",A44)-FIND("Resolution: ",A44)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">The character sheds or purges her fixation. </v>
       </c>
       <c r="G44" s="7" t="str">
-        <f>RIGHT(A44,LEN(A44)-FIND("Beat: ",A44)-5)</f>
+        <f t="shared" si="3"/>
         <v>Character fails to fulfill an obligation due to pursuing her obsession.</v>
       </c>
     </row>
@@ -2026,19 +2096,19 @@
         <v>29</v>
       </c>
       <c r="D45" s="7" t="str">
-        <f>MID(A45,FIND("Description: ",A45) + 13,IF(ISERROR(FIND("Possible Sources: ",A45)),FIND("Resolution: ",A45),FIND("Possible Sources: ",A45))- FIND("Description: ",A45) - 13)</f>
+        <f t="shared" ref="D45:D51" si="4">MID(A45,FIND("Description: ",A45) + 13,IF(ISERROR(FIND("Possible Sources: ",A45)),FIND("Resolution: ",A45),FIND("Possible Sources: ",A45))- FIND("Description: ",A45) - 13)</f>
         <v xml:space="preserve">Your character has been reduced to a state of rampant paranoia. She jumps at shadows, sees threats everywhere, and finds it hard to trust. She suffers a –2 penalty to Perception rolls, Social actions, and dice pools to draw upon the Allies, Contacts, Mentor, Retainer, Staff, and Status Merits. </v>
       </c>
       <c r="E45" s="7" t="str">
-        <f>IF(ISERROR(FIND("Possible Sources: ",A45)),"",MID(A45,FIND("Possible Sources: ",A45)+18,FIND("Resolution: ",A45)-FIND("Possible Sources: ",A45)-19))</f>
+        <f t="shared" ref="E45:E51" si="5">IF(ISERROR(FIND("Possible Sources: ",A45)),"",MID(A45,FIND("Possible Sources: ",A45)+18,FIND("Resolution: ",A45)-FIND("Possible Sources: ",A45)-19))</f>
         <v>Some Gifts.</v>
       </c>
       <c r="F45" s="7" t="str">
-        <f>MID(A45,FIND("Resolution: ",A45)+12,FIND("Beat: ",A45)-FIND("Resolution: ",A45)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">A week without any threat actually manifesting; a friend or ally achieving an exceptional success on a Social action to convince you of their trustworthiness. </v>
       </c>
       <c r="G45" s="7" t="str">
-        <f>RIGHT(A45,LEN(A45)-FIND("Beat: ",A45)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2053,19 +2123,19 @@
         <v>30</v>
       </c>
       <c r="D46" s="7" t="str">
-        <f>MID(A46,FIND("Description: ",A46) + 13,IF(ISERROR(FIND("Possible Sources: ",A46)),FIND("Resolution: ",A46),FIND("Possible Sources: ",A46))- FIND("Description: ",A46) - 13)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Your character is Pure. She adheres to the Oath of the Moon in all things. She’s known to put her ancestral duties above everything in her life. To some, this looks a weakness to exploit. It tempts others to challenge her adherence to her Oath. Sometimes this is due to malice, sometimes jealousy, sometimes disbelief. Any such rolls to tempt her to disgrace gain +2 dice. When your character stands up to that temptation, she carries the terrifying mantle of her ancestors. </v>
       </c>
       <c r="E46" s="7" t="str">
-        <f>IF(ISERROR(FIND("Possible Sources: ",A46)),"",MID(A46,FIND("Possible Sources: ",A46)+18,FIND("Resolution: ",A46)-FIND("Possible Sources: ",A46)-19))</f>
+        <f t="shared" si="5"/>
         <v>Flaring Purity Renown brands with Essence.</v>
       </c>
       <c r="F46" s="7" t="str">
-        <f>MID(A46,FIND("Resolution: ",A46)+12,FIND("Beat: ",A46)-FIND("Resolution: ",A46)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Once at least one individual has used the +2 bonus, you may choose to shed this Condition to add your character’s Purity Renown in automatic successes to any Athletics, Brawl, or Survival action, even if she rolls no successes. </v>
       </c>
       <c r="G46" s="7" t="str">
-        <f>RIGHT(A46,LEN(A46)-FIND("Beat: ",A46)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2080,19 +2150,19 @@
         <v>31</v>
       </c>
       <c r="D47" s="7" t="str">
-        <f>MID(A47,FIND("Description: ",A47) + 13,IF(ISERROR(FIND("Possible Sources: ",A47)),FIND("Resolution: ",A47),FIND("Possible Sources: ",A47))- FIND("Description: ",A47) - 13)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Your character has opened to the spirit world, as result of her experience with Lunacy. She cannot resist possession (see p. 190), and she bleeds Essence. Every day, she generates Essence equal to her Resolve score. Spirits can consume the Essence by touching her, but werewolves must eat her flesh — gaining the Essence in addition to the amount normally given by eating human meat. If she dramatically fails an action, she may slip into the Hisil instead of suffering the normal dramatic failure for the action. </v>
       </c>
       <c r="E47" s="7" t="str">
-        <f>IF(ISERROR(FIND("Possible Sources: ",A47)),"",MID(A47,FIND("Possible Sources: ",A47)+18,FIND("Resolution: ",A47)-FIND("Possible Sources: ",A47)-19))</f>
+        <f t="shared" si="5"/>
         <v>Succumbing to Lunacy.</v>
       </c>
       <c r="F47" s="7" t="str">
-        <f>MID(A47,FIND("Resolution: ",A47)+12,FIND("Beat: ",A47)-FIND("Resolution: ",A47)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Your character experiences grave danger as result of her experience with the Hisil. </v>
       </c>
       <c r="G47" s="7" t="str">
-        <f>RIGHT(A47,LEN(A47)-FIND("Beat: ",A47)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2107,19 +2177,19 @@
         <v>32</v>
       </c>
       <c r="D48" s="7" t="str">
-        <f>MID(A48,FIND("Description: ",A48) + 13,IF(ISERROR(FIND("Possible Sources: ",A48)),FIND("Resolution: ",A48),FIND("Possible Sources: ",A48))- FIND("Description: ",A48) - 13)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Your character faced down his hunter, and the frightening beast has shown him the essence of doom. While he may still fight or flee, there’s a part of him inside that welcomes the release of death. Your character may not spend Willpower to add dice or resistance for any action to defend himself from a deadly threat. He can fuel Gifts or use other actions, but his self-defense becomes lackluster at best. </v>
       </c>
       <c r="E48" s="7" t="str">
-        <f>IF(ISERROR(FIND("Possible Sources: ",A48)),"",MID(A48,FIND("Possible Sources: ",A48)+18,FIND("Resolution: ",A48)-FIND("Possible Sources: ",A48)-19))</f>
+        <f t="shared" si="5"/>
         <v>The Cahalith’s Monstrous hunter aspect.</v>
       </c>
       <c r="F48" s="7" t="str">
-        <f>MID(A48,FIND("Resolution: ",A48)+12,FIND("Beat: ",A48)-FIND("Resolution: ",A48)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Suffer a wound penalty from lethal or aggravated damage, or suffer a lethal wound in your character’s last Health box. </v>
       </c>
       <c r="G48" s="7" t="str">
-        <f>RIGHT(A48,LEN(A48)-FIND("Beat: ",A48)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2134,19 +2204,19 @@
         <v>33</v>
       </c>
       <c r="D49" s="7" t="str">
-        <f>MID(A49,FIND("Description: ",A49) + 13,IF(ISERROR(FIND("Possible Sources: ",A49)),FIND("Resolution: ",A49),FIND("Possible Sources: ",A49))- FIND("Description: ",A49) - 13)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Your character has been afflicted with a supernatural panic; she is jumpy and on edge, afraid that every shadow might contain sharp teeth and sudden death. She suffers a –2 penalty to all Perception rolls. Any failure on a Perception roll becomes a dramatic failure as she thinks she sees an attacker or threat out of the corner of her eye, and she will react with panic; if she’s carrying a firearm she will likely start firing at shadows. Thinking rationally is difficult in the face of such fear and she suffers a –2 penalty on all Intelligence- and Witsbased dice pools. </v>
       </c>
       <c r="E49" s="7" t="str">
-        <f>IF(ISERROR(FIND("Possible Sources: ",A49)),"",MID(A49,FIND("Possible Sources: ",A49)+18,FIND("Resolution: ",A49)-FIND("Possible Sources: ",A49)-19))</f>
+        <f t="shared" si="5"/>
         <v>Some Gifts.</v>
       </c>
       <c r="F49" s="7" t="str">
-        <f>MID(A49,FIND("Resolution: ",A49)+12,FIND("Beat: ",A49)-FIND("Resolution: ",A49)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">The character reaches a place of safety. The character achieves an exceptional success on a Perception roll. </v>
       </c>
       <c r="G49" s="7" t="str">
-        <f>RIGHT(A49,LEN(A49)-FIND("Beat: ",A49)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2161,19 +2231,19 @@
         <v>35</v>
       </c>
       <c r="D50" s="7" t="str">
-        <f>MID(A50,FIND("Description: ",A50) + 13,IF(ISERROR(FIND("Possible Sources: ",A50)),FIND("Resolution: ",A50),FIND("Possible Sources: ",A50))- FIND("Description: ",A50) - 13)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Your character failed to master the laws of the Shadow and now suffers for her hubris. For as long as the Condition lasts, she suffers a –2 penalty on all rolls involving interaction with the Shadow and its denizens. </v>
       </c>
       <c r="E50" s="7" t="str">
-        <f>IF(ISERROR(FIND("Possible Sources: ",A50)),"",MID(A50,FIND("Possible Sources: ",A50)+18,FIND("Resolution: ",A50)-FIND("Possible Sources: ",A50)-19))</f>
+        <f t="shared" si="5"/>
         <v>Dramatic failure on a rite.</v>
       </c>
       <c r="F50" s="7" t="str">
-        <f>MID(A50,FIND("Resolution: ",A50)+12,FIND("Beat: ",A50)-FIND("Resolution: ",A50)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Successfully perform a rite. Have a meaningful interaction with a spiritual Touchstone. Meditate in the Shadow. </v>
       </c>
       <c r="G50" s="7" t="str">
-        <f>RIGHT(A50,LEN(A50)-FIND("Beat: ",A50)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2188,19 +2258,19 @@
         <v>34</v>
       </c>
       <c r="D51" s="8" t="str">
-        <f>MID(A51,FIND("Description: ",A51) + 13,IF(ISERROR(FIND("Possible Sources: ",A51)),FIND("Resolution: ",A51),FIND("Possible Sources: ",A51))- FIND("Description: ",A51) - 13)</f>
+        <f t="shared" si="4"/>
         <v xml:space="preserve">Something has severely frightened your character. Any time your character is taking an action where that fear might hinder her, you may opt to fail the roll and resolve this Condition. This Condition can be imposed by undergoing a breaking point roll. </v>
       </c>
       <c r="E51" s="8" t="str">
-        <f>IF(ISERROR(FIND("Possible Sources: ",A51)),"",MID(A51,FIND("Possible Sources: ",A51)+18,FIND("Resolution: ",A51)-FIND("Possible Sources: ",A51)-19))</f>
+        <f t="shared" si="5"/>
         <v>Facing a breaking point.</v>
       </c>
       <c r="F51" s="8" t="str">
-        <f>MID(A51,FIND("Resolution: ",A51)+12,FIND("Beat: ",A51)-FIND("Resolution: ",A51)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">The character gives into her fear and fails a roll as described above. </v>
       </c>
       <c r="G51" s="8" t="str">
-        <f>RIGHT(A51,LEN(A51)-FIND("Beat: ",A51)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2224,11 +2294,11 @@
         <v>Brawl, Firearms, Intimidation, Weaponry</v>
       </c>
       <c r="F52" s="8" t="str">
-        <f>MID(A52,FIND("Resolution: ",A52)+12,FIND("Beat: ",A52)-FIND("Resolution: ",A52)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">The character gives into her fear and fails a roll as described above. </v>
       </c>
       <c r="G52" s="8" t="str">
-        <f>RIGHT(A52,LEN(A52)-FIND("Beat: ",A52)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2256,11 +2326,11 @@
         <v>The Sacred Hunt rite, or being personally blessed by a Firstborn.</v>
       </c>
       <c r="F53" s="7" t="str">
-        <f>MID(A53,FIND("Resolution: ",A53)+12,FIND("Beat: ",A53)-FIND("Resolution: ",A53)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">The prey is brought down (a kill is not necessary) or the pack breaks off the Siskur-Dah by taking any significant actions towards ends other than the hunt. </v>
       </c>
       <c r="G53" s="7" t="str">
-        <f>RIGHT(A53,LEN(A53)-FIND("Beat: ",A53)-5)</f>
+        <f t="shared" si="3"/>
         <v>Your character achieves an exceptional success on an action involving the prey.</v>
       </c>
     </row>
@@ -2283,11 +2353,11 @@
         <v>Facing a breaking point, encountering the supernatural.</v>
       </c>
       <c r="F54" s="8" t="str">
-        <f>MID(A54,FIND("Resolution: ",A54)+12,FIND("Beat: ",A54)-FIND("Resolution: ",A54)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">This Condition is resolved when your character’s fear and fascination causes her to do something that hinders the group or complicates things (she goes off alone to investigate a strange noise, stays up all night researching, runs away instead of holding her ground, etc.). </v>
       </c>
       <c r="G54" s="8" t="str">
-        <f>RIGHT(A54,LEN(A54)-FIND("Beat: ",A54)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2311,11 +2381,11 @@
         <v/>
       </c>
       <c r="F55" s="8" t="str">
-        <f>MID(A55,FIND("Resolution: ",A55)+12,FIND("Beat: ",A55)-FIND("Resolution: ",A55)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">This Condition is resolved when your character’s fear and fascination causes her to do something that hinders the group or complicates things (she goes off alone to investigate a strange noise, stays up all night researching, runs away instead of holding her ground, etc.). </v>
       </c>
       <c r="G55" s="8" t="str">
-        <f>RIGHT(A55,LEN(A55)-FIND("Beat: ",A55)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2338,11 +2408,11 @@
         <v>Facing a breaking point.</v>
       </c>
       <c r="F56" s="8" t="str">
-        <f>MID(A56,FIND("Resolution: ",A56)+12,FIND("Beat: ",A56)-FIND("Resolution: ",A56)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">You use this Condition as described above. </v>
       </c>
       <c r="G56" s="8" t="str">
-        <f>RIGHT(A56,LEN(A56)-FIND("Beat: ",A56)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2366,11 +2436,11 @@
         <v/>
       </c>
       <c r="F57" s="8" t="str">
-        <f>MID(A57,FIND("Resolution: ",A57)+12,FIND("Beat: ",A57)-FIND("Resolution: ",A57)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Your character’s confidence carries him through and the worst is avoided; the Condition is resolved as described above. </v>
       </c>
       <c r="G57" s="8" t="str">
-        <f>RIGHT(A57,LEN(A57)-FIND("Beat: ",A57)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2393,11 +2463,11 @@
         <v>Failure during a rite or Facet use.</v>
       </c>
       <c r="F58" s="7" t="str">
-        <f>MID(A58,FIND("Resolution: ",A58)+12,FIND("Beat: ",A58)-FIND("Resolution: ",A58)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">The extended action ends. </v>
       </c>
       <c r="G58" s="7" t="str">
-        <f>RIGHT(A58,LEN(A58)-FIND("Beat: ",A58)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2420,11 +2490,11 @@
         <v>The Rahu’s Dominant hunter aspect.</v>
       </c>
       <c r="F59" s="7" t="str">
-        <f>MID(A59,FIND("Resolution: ",A59)+12,FIND("Beat: ",A59)-FIND("Resolution: ",A59)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Suffer a wound penalty from lethal or aggravated wounds, or suffer a lethal wound in your character’s last Health box. </v>
       </c>
       <c r="G59" s="7" t="str">
-        <f>RIGHT(A59,LEN(A59)-FIND("Beat: ",A59)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2447,11 +2517,11 @@
         <v>Be on the receiving end of an exceptional success of a Persuasion or Subterfuge roll, have another character help you fulfill your Vice (if human).</v>
       </c>
       <c r="F60" s="8" t="str">
-        <f>MID(A60,FIND("Resolution: ",A60)+12,FIND("Beat: ",A60)-FIND("Resolution: ",A60)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Your character does something for his love interest that puts him in danger, or he opts to fail a roll to resist a Social action by the specified character. </v>
       </c>
       <c r="G60" s="8" t="str">
-        <f>RIGHT(A60,LEN(A60)-FIND("Beat: ",A60)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2475,11 +2545,11 @@
         <v>Persuasion, Subterfuge</v>
       </c>
       <c r="F61" s="8" t="str">
-        <f>MID(A61,FIND("Resolution: ",A61)+12,FIND("Beat: ",A61)-FIND("Resolution: ",A61)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Your character does something for his love interest that puts him in danger, or he opts to fail a roll to resist a Social action by the specified character. </v>
       </c>
       <c r="G61" s="8" t="str">
-        <f>RIGHT(A61,LEN(A61)-FIND("Beat: ",A61)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2502,11 +2572,11 @@
         <v>Exceptional success during a rite.</v>
       </c>
       <c r="F62" s="7" t="str">
-        <f>MID(A62,FIND("Resolution: ",A62)+12,FIND("Beat: ",A62)-FIND("Resolution: ",A62)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Exceptional success on an interaction with a spirit. Falling into Wasu-Im. Breaking any ban she possesses. </v>
       </c>
       <c r="G62" s="7" t="str">
-        <f>RIGHT(A62,LEN(A62)-FIND("Beat: ",A62)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2529,11 +2599,11 @@
         <v>The Irraka’s Blissful hunter aspect.</v>
       </c>
       <c r="F63" s="7" t="str">
-        <f>MID(A63,FIND("Resolution: ",A63)+12,FIND("Beat: ",A63)-FIND("Resolution: ",A63)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Suffer a wound penalty from lethal or aggravated wounds, or suffer a lethal wound in your character’s last Health box. </v>
       </c>
       <c r="G63" s="7" t="str">
-        <f>RIGHT(A63,LEN(A63)-FIND("Beat: ",A63)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2556,11 +2626,11 @@
         <v>Exceptional success on a tracking action.</v>
       </c>
       <c r="F64" s="7" t="str">
-        <f>MID(A64,FIND("Resolution: ",A64)+12,FIND("Beat: ",A64)-FIND("Resolution: ",A64)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">This Condition hampers a number of tracking attempts against her equal to the greater of her Survival or Streetwise. </v>
       </c>
       <c r="G64" s="7" t="str">
-        <f>RIGHT(A64,LEN(A64)-FIND("Beat: ",A64)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2583,11 +2653,11 @@
         <v>Flaring Wisdom Renown brands with Essence.</v>
       </c>
       <c r="F65" s="7" t="str">
-        <f>MID(A65,FIND("Resolution: ",A65)+12,FIND("Beat: ",A65)-FIND("Resolution: ",A65)-12)</f>
+        <f t="shared" si="2"/>
         <v xml:space="preserve">Once at least one individual has used the +2 bonus, you may choose to shed this Condition to add your character’s Wisdom Renown in automatic successes to any Investigation, Medicine, or Occult action, even if she rolls no successes. </v>
       </c>
       <c r="G65" s="7" t="str">
-        <f>RIGHT(A65,LEN(A65)-FIND("Beat: ",A65)-5)</f>
+        <f t="shared" si="3"/>
         <v>n/a</v>
       </c>
     </row>
@@ -2604,80 +2674,856 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55C0BB8-057D-47B4-9ABC-18D1A275BB50}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="46" customWidth="1"/>
+    <col min="5" max="5" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="69.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="8" t="str">
+        <f>MID(A2,FIND("Description: ",A2) + 13,FIND("Effect: ",A2) - FIND("Description: ",A2) - 13)</f>
+        <v xml:space="preserve">Your arm burns with pain and then goes numb. It could be dislocated, sprained, or broken, but whatever’s wrong with it, you can’t move your limb. </v>
+      </c>
+      <c r="E2" s="8" t="str">
+        <f>MID(A2,FIND("Effect: ",A2) + 8,FIND("Causing the Tilt: ",A2) - FIND("Effect: ",A2) - 8)</f>
+        <v xml:space="preserve">If your arm’s broken or otherwise busted, you drop whatever you’re holding in that arm and can’t use it to attack opponents — unless you’ve got the Ambidextrous Merit, you suffer off-hand penalties for any rolls that require manual dexterity. If this effect spreads to both limbs, you’re down to a chance die on any rolls that require manual dexterity, and -3 to all other Physical actions. </v>
+      </c>
+      <c r="F2" s="8" t="str">
+        <f>MID(A2,FIND("Causing the Tilt: ",A2) + 18,FIND("Ending the Tilt: ",A2) - FIND("Causing the Tilt: ",A2) - 18)</f>
+        <v xml:space="preserve">Some supernatural powers can cripple a victim’s limbs or break bone with a touch. A character can have his arm knocked out by a targeted blow to the arm (–2 penalty) that deals more damage than the character’s Stamina. A targeted blow to the hand inflicts this Tilt if it does any damage. </v>
+      </c>
+      <c r="G2" s="8" t="str">
+        <f>RIGHT(A2,LEN(A2)-FIND("Ending the Tilt: ",A2)-16)</f>
+        <v>If the Tilt is inflicted as a result of an attack, mark an ‘x’ under the leftmost Health box inflicted in that attack; the Tilt ends when the damage that caused it has healed. If the damage that inflicts this Tilt is aggravated, the character loses the use of his arm (or straight up loses his arm) permanently.</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f>LEFT(A3,FIND("Description: ",A3)-2)</f>
+        <v>Arm Wrack</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>MID(A3,FIND("Description: ",A3) + 13,FIND("Effect: ",A3) - FIND("Description: ",A3) - 13)</f>
+        <v xml:space="preserve">Your arm burns with pain and then goes numb. It could be dislocated, sprained, or broken: whatever’s wrong with it, you can’t move your limb. </v>
+      </c>
+      <c r="E3" s="8" t="str">
+        <f>MID(A3,FIND("Effect: ",A3) + 8,FIND("Causing the Tilt: ",A3) - FIND("Effect: ",A3) - 8)</f>
+        <v xml:space="preserve">If your arm’s broken or otherwise busted, you drop whatever you’re holding in that arm and can’t use it to attack opponents — unless you’ve got the Ambidextrous Merit, you suffer off-hand penalties for any rolls that require manual dexterity. If this effect spreads to both limbs, you’re down to a chance die on any rolls that require manual dexterity, and −3 to all other Physical actions. </v>
+      </c>
+      <c r="F3" s="8" t="str">
+        <f>MID(A3,FIND("Causing the Tilt: ",A3) + 18,FIND("Ending the Tilt: ",A3) - FIND("Causing the Tilt: ",A3) - 18)</f>
+        <v xml:space="preserve">Some supernatural powers can cripple a victim’s limbs or break bones with a touch. A character can have his arm knocked out by a targeted blow to the arm (–2 penalty) that deals more damage than the character’s Stamina. A targeted blow to the hand inflicts this Tilt if it does any damage. </v>
+      </c>
+      <c r="G3" s="8" t="str">
+        <f>RIGHT(A3,LEN(A3)-FIND("Ending the Tilt: ",A3)-16)</f>
+        <v>If the Tilt is inflicted as a result of an attack, mark an ‘x’ under the leftmost Health box inflicted in that attack; the Tilt ends when the damage that caused it has healed. If aggravated damage inflicts this Tilt, the character loses the use of his arm (or straight up loses his arm) permanently.</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="7" t="str">
+        <f>LEFT(A4,FIND("Description: ",A4)-2)</f>
+        <v>Beaten Down</v>
+      </c>
+      <c r="D4" s="7" t="str">
+        <f>MID(A4,FIND("Description: ",A4) + 13,FIND("Effect: ",A4) - FIND("Description: ",A4) - 13)</f>
+        <v xml:space="preserve">The character has had the fight knocked out of him. </v>
+      </c>
+      <c r="E4" s="7" t="str">
+        <f>MID(A4,FIND("Effect: ",A4) + 8,FIND("Causing the Tilt: ",A4) - FIND("Effect: ",A4) - 8)</f>
+        <v xml:space="preserve">The character cannot take active part in the fight without extra effort. The player must spend a point of Willpower each time he wants the character to take a violent action in the fight. He can still run, Dodge, and apply Defense. If he wishes to take another action, the Storyteller should judge whether the action is aggressive enough to require the expenditure.` </v>
+      </c>
+      <c r="F4" s="7" t="str">
+        <f>MID(A4,FIND("Causing the Tilt: ",A4) + 18,FIND("Ending the Tilt: ",A4) - FIND("Causing the Tilt: ",A4) - 18)</f>
+        <v xml:space="preserve">The character suffers bashing damage in excess of his Stamina or any amount of lethal damage. </v>
+      </c>
+      <c r="G4" s="7" t="str">
+        <f>RIGHT(A4,LEN(A4)-FIND("Ending the Tilt: ",A4)-16)</f>
+        <v>The character surrenders and gives the aggressor what he wants. At this point, the character regains a point of Willpower and takes a Beat, but can take no further action in the fight. If the aggressor’s intent is to kill or injure the character, obviously surrender isn’t a good option.</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="D5" s="8" t="str">
+        <f>MID(A5,FIND("Description: ",A5) + 13,FIND("Effect: ",A5) - FIND("Description: ",A5) - 13)</f>
+        <v xml:space="preserve">The character’s eyes are damaged or removed. </v>
+      </c>
+      <c r="E5" s="8" t="str">
+        <f>MID(A5,FIND("Effect: ",A5) + 8,FIND("Causing the Tilt: ",A5) - FIND("Effect: ",A5) - 8)</f>
+        <v xml:space="preserve">The character suffers a -3 penalty to any rolls that rely on vision — including attack rolls — and halves his Defense if one eye is blinded. That penalty increases to -5 and losing all Defense if both eyes are affected. </v>
+      </c>
+      <c r="F5" s="8" t="str">
+        <f>MID(A5,FIND("Causing the Tilt: ",A5) + 18,FIND("Ending the Tilt: ",A5) - FIND("Causing the Tilt: ",A5) - 18)</f>
+        <v xml:space="preserve">The normal way to inflict the tilt is to deal damage to the target’s eyes — a specified attack with a -5 penalty (see Specified Targets, p. 168). A successful attack normally damages one eye. It takes an exceptional success to totally blind an attacker. An attacker can inflict temporary blindness by slashing at her opponent’s brow, throwing sand into his eyes, or kicking up dirt. This requires an attack roll of Dexterity + Athletics with a -3 penalty; the victim’s Defense applies to this attack. If it succeeds, the target is Blinded for the next turn. </v>
+      </c>
+      <c r="G5" s="8" t="str">
+        <f>RIGHT(A5,LEN(A5)-FIND("Ending the Tilt: ",A5)-16)</f>
+        <v>If an attack against the character’s eye does any points of damage, mark an ‘x’ under the leftmost Health box inflicted in that attack. If the damage inflicted is aggravated the character loses vision in that eye permanently. Otherwise, the condition ends when the damage that caused the Tilt is healed.</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="8" t="str">
+        <f>LEFT(A6,FIND("Description: ",A6)-2)</f>
+        <v>Blinded</v>
+      </c>
+      <c r="D6" s="8" t="str">
+        <f>MID(A6,FIND("Description: ",A6) + 13,FIND("Effect: ",A6) - FIND("Description: ",A6) - 13)</f>
+        <v xml:space="preserve">The character’s eyes are damaged or removed, or the character is placed in a situation where eyesight is eliminated (a pitch-black room or a supernatural effect). </v>
+      </c>
+      <c r="E6" s="8" t="str">
+        <f>MID(A6,FIND("Effect: ",A6) + 8,FIND("Causing the Tilt: ",A6) - FIND("Effect: ",A6) - 8)</f>
+        <v xml:space="preserve">The character suffers a −3 penalty to any rolls that rely on vision — including attack rolls — and halves his Defense if one eye is blinded. That penalty increases to −5 and losing all Defense if both eyes are affected. </v>
+      </c>
+      <c r="F6" s="8" t="str">
+        <f>MID(A6,FIND("Causing the Tilt: ",A6) + 18,FIND("Ending the Tilt: ",A6) - FIND("Causing the Tilt: ",A6) - 18)</f>
+        <v xml:space="preserve">The most common means of inflicting the tilt is to severely impair the target’s eyesight (using a blindfold, etc). An attacker can inflict temporary blindness by slashing at her opponent’s brow, throwing sand into his eyes, or kicking up dirt. This requires an attack roll of Dexterity + Athletics with a −3 penalty; the victim’s Defense applies to this attack. If it succeeds, the target is Blinded for the next turn. Blindness can also be inflicted by dealing damage to the target’s eyes — a specified attack with a −5 penalty (see Specified Targets, above). A successful attack normally damages one eye. It takes an exceptional success to totally blind an attacker. </v>
+      </c>
+      <c r="G6" s="8" t="str">
+        <f>RIGHT(A6,LEN(A6)-FIND("Ending the Tilt: ",A6)-16)</f>
+        <v>If an attack against the character’s eye does any points of damage, mark an ‘x’ under the leftmost Health box inflicted in that attack. If the damage inflicted is aggravated the character loses vision in that eye permanently. Otherwise, the condition ends when the damage that caused the Tilt is healed.</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C7" s="7" t="str">
+        <f>LEFT(A7,FIND("Description: ",A7)-2)</f>
+        <v>Blizzard (Environmental)</v>
+      </c>
+      <c r="D7" s="7" t="str">
+        <f>MID(A7,FIND("Description: ",A7) + 13,FIND("Effect: ",A7) - FIND("Description: ",A7) - 13)</f>
+        <v xml:space="preserve">Heavy snowfall carpets the ground and just keeps falling, whipped up by howling winds into a barrage of whirling white. </v>
+      </c>
+      <c r="E7" s="7" t="str">
+        <f>MID(A7,FIND("Effect: ",A7) + 8,FIND("Causing the Tilt: ",A7) - FIND("Effect: ",A7) - 8)</f>
+        <v xml:space="preserve">Blizzards make it very hard to see for any real distance. Rolls to see things close to the character’s person, out to arm’s length away, suffer a −1 penalty. Each additional ten yards inflicts an additional −1 penalty (cumulative) on all visual Perception rolls. This penalty also applies to ranged attack rolls. Moving through snow is difficult. Every four inches of snow applies a −1 penalty to appropriate Physical rolls, including combat rolls, Athletics, and so forth. The Blizzard Tilt rarely applies by itself — the Storyteller may also inflict any or all of the Extreme Cold, Heavy Winds, or Ice Tilts (all found below). </v>
+      </c>
+      <c r="F7" s="7" t="str">
+        <f>MID(A7,FIND("Causing the Tilt: ",A7) + 18,FIND("Ending the Tilt: ",A7) - FIND("Causing the Tilt: ",A7) - 18)</f>
+        <v xml:space="preserve">For the most part, the weather is out of the characters’ control — the Storyteller should telegraph an incoming blizzard before it hits, but it’s ultimately up to her. Some supernatural powers might grant a character the power to create a blizzard. </v>
+      </c>
+      <c r="G7" s="7" t="str">
+        <f>RIGHT(A7,LEN(A7)-FIND("Ending the Tilt: ",A7)-16)</f>
+        <v>Without supernatural powers, characters can’t “end” a blizzard. The best they can manage is to escape the weather or wait for it to stop. Proper equipment (such as goggles and snow boots) can add +1 to +3 to a roll, offsetting some of the penalties. If someone is causing this Tilt through a supernatural power, it’s possible that the characters could disrupt his concentration.</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" s="7" t="str">
+        <f>LEFT(A8,FIND("Description: ",A8)-2)</f>
+        <v>Deafened</v>
+      </c>
+      <c r="D8" s="7" t="str">
+        <f>MID(A8,FIND("Description: ",A8) + 13,FIND("Effect: ",A8) - FIND("Description: ",A8) - 13)</f>
+        <v xml:space="preserve">The character can’t hear. Maybe he’s suffering intense tinnitus or can only hear the roaring of blood in his ears, or he just plain can’t hear. </v>
+      </c>
+      <c r="E8" s="7" t="str">
+        <f>MID(A8,FIND("Effect: ",A8) + 8,FIND("Causing the Tilt: ",A8) - FIND("Effect: ",A8) - 8)</f>
+        <v xml:space="preserve">If the character is deaf in one ear, he suffers a −3 penalty to hearing-based Perception rolls. A character who is struck deaf in both ears only gets a chance die on hearing-based Perception rolls, and suffers a −2 penalty to all combat-related dice rolls — suddenly losing the ability to hear the people around you is tremendously disorienting. </v>
+      </c>
+      <c r="F8" s="7" t="str">
+        <f>MID(A8,FIND("Causing the Tilt: ",A8) + 18,FIND("Ending the Tilt: ",A8) - FIND("Causing the Tilt: ",A8) - 18)</f>
+        <v xml:space="preserve">A particularly loud noise within 10 feet of the character may cause temporary hearing loss as though the character were deaf in both ears. Alternatively, a targeted attack on the ear — at a −4 penalty — can deafen a character. Supernatural creatures with heightened senses can be deafened by loud noises at greater distances. </v>
+      </c>
+      <c r="G8" s="7" t="str">
+        <f>RIGHT(A8,LEN(A8)-FIND("Ending the Tilt: ",A8)-16)</f>
+        <v>Deafness from loud noises fades after 10 – (victim’s Stamina + Resolve) turns. If an attack against the character’s ear does any points of damage, mark an ‘x’ under the leftmost Health box inflicted in that attack. If the damage inflicted is aggravated, the character loses hearing in the ear permanently. Otherwise, the condition ends when the damage that caused the Tilt is healed.</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="7" t="str">
+        <f>LEFT(A9,FIND("Description: ",A9)-2)</f>
+        <v>Drugged</v>
+      </c>
+      <c r="D9" s="7" t="str">
+        <f>MID(A9,FIND("Description: ",A9) + 13,FIND("Effect: ",A9) - FIND("Description: ",A9) - 13)</f>
+        <v xml:space="preserve">The character’s mind is addled by mind-altering substances, such as drink or drugs. </v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f>MID(A9,FIND("Effect: ",A9) + 8,FIND("Causing the Tilt: ",A9) - FIND("Effect: ",A9) - 8)</f>
+        <v xml:space="preserve">The effects of specific drugs are detailed in the on p.177 of the World of Darkness Rulebook. A generic narcotic can be represented with one set of modifiers: the character suffers a −2 modifier to Speed (and static Defense, if used) and a −3 penalty to all rolls in combat, including Defense and Perception. The character also ignores wound penalties. </v>
+      </c>
+      <c r="F9" s="7" t="str">
+        <f>MID(A9,FIND("Causing the Tilt: ",A9) + 18,FIND("Ending the Tilt: ",A9) - FIND("Causing the Tilt: ",A9) - 18)</f>
+        <v xml:space="preserve">If the character has chosen to take drugs, then he suffers the effects. To administer drugs to another character is a Dexterity + Weaponry attack, suffering a −1 modifier for the improvised weapon. If the drug has to go in to a specific body part (such as an arm or mouth), it requires an attack against a specified target. </v>
+      </c>
+      <c r="G9" s="7" t="str">
+        <f>RIGHT(A9,LEN(A9)-FIND("Ending the Tilt: ",A9)-16)</f>
+        <v>Each drug in the World of Darkness Rulebook explains how long a high lasts. A generic narcotic lasts for 10 – (victim’s Stamina + Resolve) hours. This time is halved by medical help, such as pumping the victim’s stomach or flushing his system.</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>125</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="D10" s="7" t="str">
+        <f>MID(A10,FIND("Description: ",A10) + 13,FIND("Effect: ",A10) - FIND("Description: ",A10) - 13)</f>
+        <v xml:space="preserve">Everything shudders and shakes, and rents tear the ground wide open. </v>
+      </c>
+      <c r="E10" s="7" t="str">
+        <f>MID(A10,FIND("Effect: ",A10) + 8,FIND("Causing the Tilt: ",A10) - FIND("Effect: ",A10) - 8)</f>
+        <v xml:space="preserve">Earthquakes don’t last long, but they don’t have to. When the quake’s actually occurring, all Dexterity-based dice pools (and Defense) suffer a -1 to -5 penalty depending on the quake’s severity. Characters take between one and three points of lethal damage per turn of the quake’s duration, though a reflexive Stamina + Athletics roll can downgrade that damage to bashing — or cancel it entirely on an exceptional success. </v>
+      </c>
+      <c r="F10" s="7" t="str">
+        <f>MID(A10,FIND("Causing the Tilt: ",A10) + 18,FIND("Ending the Tilt: ",A10) - FIND("Causing the Tilt: ",A10) - 18)</f>
+        <v xml:space="preserve">Without tremendous supernatural power, it’s almost impossible to cause an earthquake. A character who detonates a powerful explosive underground might simulate the effects over a city-block for a few seconds. </v>
+      </c>
+      <c r="G10" s="7" t="str">
+        <f>RIGHT(A10,LEN(A10)-FIND("Ending the Tilt: ",A10)-16)</f>
+        <v>Earthquakes are fortunately very quick events. It’s very rare for one to last more than a minute (20 turns), so waiting them out is the best course of action.</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="7" t="str">
+        <f>LEFT(A11,FIND("Description: ",A11)-2)</f>
+        <v>Earthquake (Environmental)</v>
+      </c>
+      <c r="D11" s="7" t="str">
+        <f>MID(A11,FIND("Description: ",A11) + 13,FIND("Effect: ",A11) - FIND("Description: ",A11) - 13)</f>
+        <v xml:space="preserve">Everything shudders and shakes; huge rents and holes tear the ground wide open. </v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f>MID(A11,FIND("Effect: ",A11) + 8,FIND("Causing the Tilt: ",A11) - FIND("Effect: ",A11) - 8)</f>
+        <v xml:space="preserve">Earthquakes don’t last long, but they don’t have to. When the quake’s actually occurring, all Dexterity-based dice pools (and Defense) suffer a −1 to −5 penalty depending on the quake’s severity. Characters take between one and three points of lethal damage per turn of the quake’s duration, though a reflexive Stamina + Athletics roll can downgrade that damage to bashing — or cancel it entirely on an exceptional success. </v>
+      </c>
+      <c r="F11" s="7" t="str">
+        <f>MID(A11,FIND("Causing the Tilt: ",A11) + 18,FIND("Ending the Tilt: ",A11) - FIND("Causing the Tilt: ",A11) - 18)</f>
+        <v xml:space="preserve">Without tremendous supernatural power, it’s almost impossible to cause an earthquake. A character who detonates a powerful explosive underground might simulate the effects over a city-block for a few seconds. </v>
+      </c>
+      <c r="G11" s="7" t="str">
+        <f>RIGHT(A11,LEN(A11)-FIND("Ending the Tilt: ",A11)-16)</f>
+        <v>Earthquakes are fortunately very quick events. It’s very rare for one to last more than a minute (20 turns), so waiting them out is the best course of action.</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>137</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="7" t="str">
+        <f>LEFT(A12,FIND("Description: ",A12)-2)</f>
+        <v>Extreme Cold (Environmental)</v>
+      </c>
+      <c r="D12" s="7" t="str">
+        <f>MID(A12,FIND("Description: ",A12) + 13,FIND("Effect: ",A12) - FIND("Description: ",A12) - 13)</f>
+        <v xml:space="preserve">Bone-chilling winds bite through the character, or trudging through knee-deep snow takes all of the sensation from his limbs. Any time the temperature gets down below zero degrees Celsius (32 degrees Fahrenheit), a character can suffer from the cold’s effects. This Tilt can sometimes be personal, either as a result of a medical condition such as hypothermia or a supernatural power. </v>
+      </c>
+      <c r="E12" s="7" t="str">
+        <f>MID(A12,FIND("Effect: ",A12) + 8,FIND("Causing the Tilt: ",A12) - FIND("Effect: ",A12) - 8)</f>
+        <v xml:space="preserve">When the temperature is below freezing, characters can’t heal bashing damage — the extreme temperature deals damage at the same rate normal characters heal it (a cut might turn to frostbite, for instance). Supernatural beings and characters who heal faster than normal instead halve their normal healing rate. For every hour that a character is continuously affected by this Tilt, he accrues a −1 penalty to all rolls. When that penalty hits −5 dice, he instead suffers 1 point of lethal damage per hour. </v>
+      </c>
+      <c r="F12" s="7" t="str">
+        <f>MID(A12,FIND("Causing the Tilt: ",A12) + 18,FIND("Ending the Tilt: ",A12) - FIND("Causing the Tilt: ",A12) - 18)</f>
+        <v xml:space="preserve">A character can suffer this Tilt from being in a frozen environment — whether he’s outside in the Arctic tundra or in a walk-in freezer. Inflicting the Tilt is reasonably straightforward: throw the victim into a freezing lake or lock him in a freezer for long enough and he’ll develop hypothermia. </v>
+      </c>
+      <c r="G12" s="7" t="str">
+        <f>RIGHT(A12,LEN(A12)-FIND("Ending the Tilt: ",A12)-16)</f>
+        <v>The best way to escape the freezing cold is to find a source of warmth — either a building with working heating, or warm bundled clothing. A character who has hypothermia requires medical attention.</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>138</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="7" t="str">
+        <f>LEFT(A13,FIND("Description: ",A13)-2)</f>
+        <v>Extreme Heat (Environmental)</v>
+      </c>
+      <c r="D13" s="7" t="str">
+        <f>MID(A13,FIND("Description: ",A13) + 13,FIND("Effect: ",A13) - FIND("Description: ",A13) - 13)</f>
+        <v xml:space="preserve">The character might be stumbling through the desert with the sun beating down on him, or running through the steam-tunnels surrounding an old boiler room. This Tilt can also be personal, the result of a debilitating fever that spikes his temperature far above the norm. Extreme heat is normally anything above 40 degrees Celsius (104 degrees Fahrenheit) — this includes both environmental temperature and internal body temperature due to fever. </v>
+      </c>
+      <c r="E13" s="7" t="str">
+        <f>MID(A13,FIND("Effect: ",A13) + 8,FIND("Causing the Tilt: ",A13) - FIND("Effect: ",A13) - 8)</f>
+        <v xml:space="preserve">When the temperature is far above normal, characters can’t heal bashing damage — the extreme temperature deals damage at the same rate normal characters heal it (a cut might heal, but it’s replaced by sunburn or sunstroke). Supernatural beings and characters who heal faster than normal instead halve their normal healing rate. For every hour that a character is continuously affected by this Tilt, he accrues a −1 penalty to all rolls. When that penalty hits −5 dice, he instead suffers a point of lethal damage per hour. </v>
+      </c>
+      <c r="F13" s="7" t="str">
+        <f>MID(A13,FIND("Causing the Tilt: ",A13) + 18,FIND("Ending the Tilt: ",A13) - FIND("Causing the Tilt: ",A13) - 18)</f>
+        <v xml:space="preserve">This Tilt is usually caused by environmental factors — being out at noon in the desert or spending too long in a sauna or forge. Even a fever is the result of an infection, rather than something that an opponent can force on a character. It’s possible to create this Tilt on a given character: securing someone to a chair right next to an old, inefficient boiler, or stranding them in the desert far from any shade. </v>
+      </c>
+      <c r="G13" s="7" t="str">
+        <f>RIGHT(A13,LEN(A13)-FIND("Ending the Tilt: ",A13)-16)</f>
+        <v>The key to ending this Tilt is simple: get out of the heat. In a desert or similar environment, finding shade is paramount. Elsewhere, the character needs to escape whatever is causing the abnormal temperatures.</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="7" t="str">
+        <f>LEFT(A14,FIND("Description: ",A14)-2)</f>
+        <v>Flooded (Environmental)</v>
+      </c>
+      <c r="D14" s="7" t="str">
+        <f>MID(A14,FIND("Description: ",A14) + 13,FIND("Effect: ",A14) - FIND("Description: ",A14) - 13)</f>
+        <v xml:space="preserve">Some liquid — brackish water, mud, gore, or raw sewage — is high enough to impede the character’s progress. </v>
+      </c>
+      <c r="E14" s="7" t="str">
+        <f>MID(A14,FIND("Effect: ",A14) + 8,FIND("Causing the Tilt: ",A14) - FIND("Effect: ",A14) - 8)</f>
+        <v xml:space="preserve">Each foot of liquid inflicts a −2 penalty to all Physical dice pools. If the water goes up over her head, a character has to swim (Dexterity + Athletics) with a penalty appropriate for the speed of flooding. Alternatively, she can try to hold her breath (“Holding Breath,” p. 49 of the World of Darkness Rulebook) if she cannot get her head above the rising waters. </v>
+      </c>
+      <c r="F14" s="7" t="str">
+        <f>MID(A14,FIND("Causing the Tilt: ",A14) + 18,FIND("Ending the Tilt: ",A14) - FIND("Causing the Tilt: ",A14) - 18)</f>
+        <v xml:space="preserve">Normally, this Tilt is the result of heavy rain, sudden snowmelt, or a broken water main. Characters can cause this Tilt by smashing up a water heater or blowing up a small dam. Some supernatural creatures may be able to call floods down onto a region. </v>
+      </c>
+      <c r="G14" s="7" t="str">
+        <f>RIGHT(A14,LEN(A14)-FIND("Ending the Tilt: ",A14)-16)</f>
+        <v>Characters can escape flooding by getting to high ground, which is enough to mitigate this Tilt. A long-term fix would require draining the floodwaters, but each flood requires its own solution.</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>140</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C15" s="7" t="str">
+        <f>LEFT(A15,FIND("Description: ",A15)-2)</f>
+        <v>Heavy Rain (Environmental)</v>
+      </c>
+      <c r="D15" s="7" t="str">
+        <f>MID(A15,FIND("Description: ",A15) + 13,FIND("Effect: ",A15) - FIND("Description: ",A15) - 13)</f>
+        <v xml:space="preserve">Torrential rain lashes down in knives, bouncing high off the sidewalk. The sound of rain on the ground is a constant hammering rumble that goes on without end, like dropping ball bearings on a tin roof. Thick gray curtains of water obscure vision. </v>
+      </c>
+      <c r="E15" s="7" t="str">
+        <f>MID(A15,FIND("Effect: ",A15) + 8,FIND("Causing the Tilt: ",A15) - FIND("Effect: ",A15) - 8)</f>
+        <v xml:space="preserve">Heavy rains — approaching tropical storm levels or worse — cause a Perception penalty of −3 dice to both vision and hearing. Rain’s hard to see through, but it’s also loud. If the rains carry on for an hour or more, the Flooded Tilt will soon follow. This Tilt is often accompanied by Heavy Winds; a character trapped out in Heavy Rains might come under the effects of Extreme Cold. </v>
+      </c>
+      <c r="F15" s="7" t="str">
+        <f>MID(A15,FIND("Causing the Tilt: ",A15) + 18,FIND("Ending the Tilt: ",A15) - FIND("Causing the Tilt: ",A15) - 18)</f>
+        <v xml:space="preserve">Short of supernatural power or a fleet of cloud-seeding aircraft, Heavy Rain is the result of natural weather patterns. </v>
+      </c>
+      <c r="G15" s="7" t="str">
+        <f>RIGHT(A15,LEN(A15)-FIND("Ending the Tilt: ",A15)-16)</f>
+        <v>The best way out of the rain is to get indoors. Unless it’s the start of some sodden apocalypse, the characters can wait for the weather to ease.</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="D16" s="8" t="str">
+        <f>MID(A16,FIND("Description: ",A16) + 13,FIND("Effect: ",A16) - FIND("Description: ",A16) - 13)</f>
+        <v xml:space="preserve">Howling winds buffet at the characters, whipping street furniture into the air, tearing the roofs from buildings. Powerful winds can toss cars around like toys. Anyone out in the winds feels like they’re taking a beating just for walking down the street. </v>
+      </c>
+      <c r="E16" s="8" t="str">
+        <f>MID(A16,FIND("Effect: ",A16) + 8,FIND("Causing the Tilt: ",A16) - FIND("Effect: ",A16) - 8)</f>
+        <v xml:space="preserve">Heavy winds are loud, so characters suffer a -3 modifier to aural Perception rolls. Also the wind inflicts a penalty to all Physical rolls when out in the winds — including Drive rolls. Grade the wind from one to five — one is tropical storm level (around 40 MPH), three is hurricane level (around 80 MPH), and five is tornado level (150+ MPH). This is the penalty applied to Physical dice rolls. Characters outside in the maelstrom take damage from flying debris, taking bashing damage each turn equal to the wind’s rating. A characters can make a reflexive Dexterity + Athletics roll to avoid damage. </v>
+      </c>
+      <c r="F16" s="8" t="str">
+        <f>MID(A16,FIND("Causing the Tilt: ",A16) + 18,FIND("Ending the Tilt: ",A16) - FIND("Causing the Tilt: ",A16) - 18)</f>
+        <v xml:space="preserve">Heavy winds are a fact of life, from siroccos in the desert to tornados in the Midwest to wind shears everywhere. </v>
+      </c>
+      <c r="G16" s="8" t="str">
+        <f>RIGHT(A16,LEN(A16)-FIND("Ending the Tilt: ",A16)-16)</f>
+        <v>Getting out of the wind is the best way to end this Tilt. Sometimes that’s as easy as sheltering in an automobile — as long as nobody tries to drive. Buildings provide more permanent shelter.</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C17" s="8" t="str">
+        <f>LEFT(A17,FIND("Description: ",A17)-2)</f>
+        <v>Heavy Winds (Environmental)</v>
+      </c>
+      <c r="D17" s="8" t="str">
+        <f>MID(A17,FIND("Description: ",A17) + 13,FIND("Effect: ",A17) - FIND("Description: ",A17) - 13)</f>
+        <v xml:space="preserve">Howling winds buffet at the characters, whipping street furniture into the air, tearing the roofs from buildings. Powerful winds can toss cars around like toys. Anyone out in the winds feels like they’re taking a beating just for walking down the street. </v>
+      </c>
+      <c r="E17" s="8" t="e">
+        <f>MID(A17,FIND("Effect: ",A17) + 8,FIND("Causing the Tilt: ",A17) - FIND("Effect: ",A17) - 8)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F17" s="8" t="e">
+        <f>MID(A17,FIND("Causing the Tilt: ",A17) + 18,FIND("Ending the Tilt: ",A17) - FIND("Causing the Tilt: ",A17) - 18)</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G17" s="8" t="str">
+        <f>RIGHT(A17,LEN(A17)-FIND("Ending the Tilt: ",A17)-16)</f>
+        <v>Getting out of the wind is the best way to end this Tilt. Sometimes that’s as easy as sheltering in an automobile — as long as nobody tries to drive. Buildings provide more permanent shelter.</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="7" t="str">
+        <f>LEFT(A18,FIND("Description: ",A18)-2)</f>
+        <v>Ice (Environmental)</v>
+      </c>
+      <c r="D18" s="7" t="str">
+        <f>MID(A18,FIND("Description: ",A18) + 13,FIND("Effect: ",A18) - FIND("Description: ",A18) - 13)</f>
+        <v xml:space="preserve">The ground’s covered in a mirror-smooth layer of ice that sends wheels spinning and people’s feet flying out from under them. The ice could be so thin as to be nearly invisible or a thick layer that’s the only thing keeping the characters from sinking into a frozen lake. </v>
+      </c>
+      <c r="E18" s="7" t="str">
+        <f>MID(A18,FIND("Effect: ",A18) + 8,FIND("Causing the Tilt: ",A18) - FIND("Effect: ",A18) - 8)</f>
+        <v xml:space="preserve">When a character can’t trust her footing, divide her Speed in half and all Physical rolls (and Defense) suffer a −2 penalty. Attempting to move at full Speed increases the Physical penalty to −4. Any dramatic failure on a Physical roll inflicts the Knocked Down Tilt. Driving on ice is a real pain — halve Acceleration and characters suffer a −5 penalty to Drive rolls. </v>
+      </c>
+      <c r="F18" s="7" t="str">
+        <f>MID(A18,FIND("Causing the Tilt: ",A18) + 18,FIND("Ending the Tilt: ",A18) - FIND("Causing the Tilt: ",A18) - 18)</f>
+        <v xml:space="preserve">This Tilt doesn’t just apply to icy conditions, but to any surface that’s slick and slippery, including a spill of industrial lubricant or just a really well polished wooden or linoleum floor. Characters can use a Dexterity + Crafts roll to cover an area in industrial cleaner or mix up cleaning chemicals into a lubricant. If the Extreme Cold Tilt is in effect, even covering the area with water would do the trick. </v>
+      </c>
+      <c r="G18" s="7" t="str">
+        <f>RIGHT(A18,LEN(A18)-FIND("Ending the Tilt: ",A18)-16)</f>
+        <v>“Get off the ice” is good advice, but that can take work. Characters can use heat or fire to melt ice, or throw down copious quantities of salt or grit to increase traction.</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C19" s="7" t="str">
+        <f>LEFT(A19,FIND("Description: ",A19)-2)</f>
+        <v>Immobilized</v>
+      </c>
+      <c r="D19" s="7" t="str">
+        <f>MID(A19,FIND("Description: ",A19) + 13,FIND("Effect: ",A19) - FIND("Description: ",A19) - 13)</f>
+        <v xml:space="preserve">Something holds the character fast, preventing him from moving. This could be a grappling opponent, a straightjacket wrapped with heavy chains, or a coffin secured on the outside with a padlock. </v>
+      </c>
+      <c r="E19" s="7" t="str">
+        <f>MID(A19,FIND("Effect: ",A19) + 8,FIND("Causing the Tilt: ",A19) - FIND("Effect: ",A19) - 8)</f>
+        <v xml:space="preserve">The character can’t do anything but wriggle helplessly. He can’t apply Defense against incoming attacks and can’t take combat-related actions. If someone’s holding him down, he can spend a point of Willpower to deliver a head-butt or similar attack, but even that might not free him. </v>
+      </c>
+      <c r="F19" s="7" t="str">
+        <f>MID(A19,FIND("Causing the Tilt: ",A19) + 18,FIND("Ending the Tilt: ",A19) - FIND("Causing the Tilt: ",A19) - 18)</f>
+        <v xml:space="preserve">The usual way to inflict this Tilt is through the Restrain grappling move. This often uses material means to prevent the victim from moving, such as binding limbs with duct tape or zip-ties, tossing the victim into a car trunk or similar tight space, or applying painful holds and joint locks. </v>
+      </c>
+      <c r="G19" s="7" t="str">
+        <f>RIGHT(A19,LEN(A19)-FIND("Ending the Tilt: ",A19)-16)</f>
+        <v>An Immobilized target can break free by escaping from a grapple or snapping whatever binds her. If grappled, the character can struggle as normal but can only select the Break Free move on a success. If held by an item, the character must make a Strength + Athletics roll penalized by the item’s Durability. If a character’s arms and legs are both bound, he suffers a −2 penalty; this increases to −4 if he’s hog-tied. On a success, he snaps the bindings or breaks free. Each roll, successful or not, deals a point of bashing damage.</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="285" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="7" t="str">
+        <f>LEFT(A20,FIND("Description: ",A20)-2)</f>
+        <v>Insane</v>
+      </c>
+      <c r="D20" s="7" t="str">
+        <f>MID(A20,FIND("Description: ",A20) + 13,FIND("Effect: ",A20) - FIND("Description: ",A20) - 13)</f>
+        <v xml:space="preserve">The character suffers from a panic attack, sudden imbalance, or a full-on psychotic break. Her pulse races and her mind cannot focus. The world’s an unstable place, and she’s unable to keep her balance. </v>
+      </c>
+      <c r="E20" s="7" t="str">
+        <f>MID(A20,FIND("Effect: ",A20) + 8,FIND("Causing the Tilt: ",A20) - FIND("Effect: ",A20) - 8)</f>
+        <v xml:space="preserve">Someone suffering a psychotic break isn’t the sort of person to go down without a fight. Her stated intent might be irrational or just plain impossible, and she might have fewer ethical problems with using extreme violence to get what she wants. The character gains a +1 bonus to all combat rolls, but takes actions after everyone else (if two characters suffer from the Insane Tilt, both act after everyone else but compare Initiative as normal). A character suffering from this Tilt may spend Willpower, but the cost is 2 dots instead of 1 for the same effect. </v>
+      </c>
+      <c r="F20" s="7" t="str">
+        <f>MID(A20,FIND("Causing the Tilt: ",A20) + 18,FIND("Ending the Tilt: ",A20) - FIND("Causing the Tilt: ",A20) - 18)</f>
+        <v xml:space="preserve">Faced with extraordinary circumstances, any character with an appropriate Condition may gain the Insane Tilt. The Storyteller can call for a Resolve + Composure roll to resist a general anxiety that gnaws at the character’s mind; if the character fails, he gains the Tilt. If the character witnesses something truly horrific — a daughter watches her father walk to the end of the garden and shoot himself in the head, smiling all the while; a man stumbles into the wrong office at work and sees his co-workers feasting on the intern’s organs; a solder sees her unit gunned down by a sniper while she can do nothing — the Storyteller can rule that the Tilt is unavoidable. The Insane Tilt can also be triggered by a breaking point. If a character fails a breaking point role during combat, the Storyteller may apply the Insane Tilt then as well. A character can work to inspire another character’s madness in order to cause this Tilt. She could orchestrate events that she hopes will provoke a psychotic break, but that’s amateur hour. A professional swaps out her victim’s meds, giving stimulants just as his bipolar cycle ticks into mania, or dosing a paranoid or schizophrenic with hallucinogenic drugs. Some supernatural creatures possess mind-affecting powers that can apply this Tilt, even to characters who do not have an appropriate Condition. </v>
+      </c>
+      <c r="G20" s="7" t="str">
+        <f>RIGHT(A20,LEN(A20)-FIND("Ending the Tilt: ",A20)-16)</f>
+        <v>The specific effects of this Tilt don’t normally last beyond the end of the scene. A character can try to force her mind to a state of balance, but it’s not easy. She must sit and focus on blocking out the craziness. She rolls Resolve + Composure as an instant action contested by a dice pool of (10 – her Willpower). She can’t take any other actions that turn and doesn’t apply Defense against any attacks.</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>145</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C21" s="7" t="str">
+        <f>LEFT(A21,FIND("Description: ",A21)-2)</f>
+        <v>Insensate</v>
+      </c>
+      <c r="D21" s="7" t="str">
+        <f>MID(A21,FIND("Description: ",A21) + 13,FIND("Effect: ",A21) - FIND("Description: ",A21) - 13)</f>
+        <v xml:space="preserve">The character shuts down, either due to extreme fear or sudden pleasure. He may huddle in a corner, cringe away from sudden noises, or stare into space as waves of pleasure lap over him. </v>
+      </c>
+      <c r="E21" s="7" t="str">
+        <f>MID(A21,FIND("Effect: ",A21) + 8,FIND("Causing the Tilt: ",A21) - FIND("Effect: ",A21) - 8)</f>
+        <v xml:space="preserve">The character can’t take any actions until the Tilt is resolved. He can apply Defense to incoming attacks, and if he takes any damage from an attack, he’s knocked free of whatever fogged his brain. </v>
+      </c>
+      <c r="F21" s="7" t="str">
+        <f>MID(A21,FIND("Causing the Tilt: ",A21) + 18,FIND("Ending the Tilt: ",A21) - FIND("Causing the Tilt: ",A21) - 18)</f>
+        <v xml:space="preserve">Several supernatural powers can leave their victim in a trance-like state of heightened emotion, whether it’s a vampire’s mind-affecting tricks or the pants-shitting terror of witnessing a werewolf take on an inhuman form. A truly heroic amount of alcohol or a hallucinogenic drug might have similar effects; administering such a drug is a Dexterity + Weaponry attack, suffering a −1 modifier for the improvised weapon. </v>
+      </c>
+      <c r="G21" s="7" t="str">
+        <f>RIGHT(A21,LEN(A21)-FIND("Ending the Tilt: ",A21)-16)</f>
+        <v>The Tilt wears off at the end of the scene. The victim can spend a point of Willpower before then to act normally for one turn. A successful attack will also end the Tilt. If a character has been knocked insensible by drugs, this Tilt is replaced with the Drugged Tilt when it ends.</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D22" s="8" t="str">
+        <f>MID(A22,FIND("Description: ",A22) + 13,FIND("Effect: ",A22) - FIND("Description: ",A22) - 13)</f>
+        <v xml:space="preserve">Something knocks the character to the floor, either toppling her with a powerful blow to the chest or taking one of her legs out from under her. </v>
+      </c>
+      <c r="E22" s="8" t="str">
+        <f>MID(A22,FIND("Effect: ",A22) + 8,FIND("Causing the Tilt: ",A22) - FIND("Effect: ",A22) - 8)</f>
+        <v xml:space="preserve">The character is knocked off her feet. If she hasn’t already acted this turn, she loses her action. Once she’s on the ground, a character is considered prone. The character can still apply Defense against incoming attacks, and can attempt to attack from the ground at a -2 penalty. </v>
+      </c>
+      <c r="F22" s="8" t="str">
+        <f>MID(A22,FIND("Causing the Tilt: ",A22) + 18,FIND("Ending the Tilt: ",A22) - FIND("Causing the Tilt: ",A22) - 18)</f>
+        <v xml:space="preserve">Some weapons list “Knockdown” as a special effect of a damaging hit. Otherwise, a melee weapon with a damage modifier of +2 or greater, or a firearm with a damage modifier of +3 or more can be used to knock a character down with the force of the blow. Alternatively, a melee weapon or unarmed attack can knock an opponent down with a targeted attack against the legs (–2 modifier). The attacker declares that he wants to knock his opponent down, and halves the total damage done (rounding down). On a successful attack, the target is knocked down. </v>
+      </c>
+      <c r="G22" s="8" t="str">
+        <f>RIGHT(A22,LEN(A22)-FIND("Ending the Tilt: ",A22)-16)</f>
+        <v>The easiest way to end this Tilt is to stand up, which takes an action. A character who hasn’t yet acted can make a Dexterity + Athletics roll, minus any weapon modifier, instead of her normal action. If successful, she avoids the effects of this Tilt altogether. On a failure, she falls over and the Tilt applies as normal.</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>146</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="8" t="str">
+        <f>LEFT(A23,FIND("Description: ",A23)-2)</f>
+        <v>Knocked Down</v>
+      </c>
+      <c r="D23" s="8" t="str">
+        <f>MID(A23,FIND("Description: ",A23) + 13,FIND("Effect: ",A23) - FIND("Description: ",A23) - 13)</f>
+        <v xml:space="preserve">Something knocks the character to the floor, either toppling her with a powerful blow to the chest or taking one of her legs out from under her. </v>
+      </c>
+      <c r="E23" s="8" t="str">
+        <f>MID(A23,FIND("Effect: ",A23) + 8,FIND("Causing the Tilt: ",A23) - FIND("Effect: ",A23) - 8)</f>
+        <v xml:space="preserve">The character is knocked off her feet. If she hasn’t already acted this turn, she loses her action. Once she’s on the ground, a character is considered prone (see “Going Prone,” pp. 164–165 of the World of Darkness Rulebook). The character can still apply Defense against incoming attacks, and can attempt to attack from the ground at a −2 penalty. </v>
+      </c>
+      <c r="F23" s="8" t="str">
+        <f>MID(A23,FIND("Causing the Tilt: ",A23) + 18,FIND("Ending the Tilt: ",A23) - FIND("Causing the Tilt: ",A23) - 18)</f>
+        <v xml:space="preserve">Some weapons list “Knockdown” as a special effect of a damaging hit. Otherwise, a melee weapon with a damage modifier of +2 or greater, or a firearm with a damage modifier of +3 or more can be used to knock a character down with the force of the blow. Alternatively, a melee weapon or unarmed attack can knock an opponent down with a targeted attack against the legs (–2 modifier). The attacker declares that he wants to knock his opponent down and halves the total damage done (rounding down). On a successful attack, the target is knocked down. </v>
+      </c>
+      <c r="G23" s="8" t="str">
+        <f>RIGHT(A23,LEN(A23)-FIND("Ending the Tilt: ",A23)-16)</f>
+        <v>The easiest way to end this Tilt is to stand up, which takes an action. A character affected by this Tilt who hasn’t yet acted can make a Dexterity + Athletics roll, minus any weapon modifier, instead of her normal action. If successful, she avoids the effects of this Tilt altogether. On a failure, she falls over and the Tilt applies as normal.</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D24" s="8" t="str">
+        <f>MID(A24,FIND("Description: ",A24) + 13,FIND("Effect: ",A24) - FIND("Description: ",A24) - 13)</f>
+        <v xml:space="preserve">Your leg feels like it’s going to snap clean off whenever you move; when you stop moving you feel a burning numbness that encourages you to avoid moving. </v>
+      </c>
+      <c r="E24" s="8" t="str">
+        <f>MID(A24,FIND("Effect: ",A24) + 8,FIND("Causing the Tilt: ",A24) - FIND("Effect: ",A24) - 8)</f>
+        <v xml:space="preserve">If your leg is broken, sprained, or dislocated, halve your Speed and suffer a -2 penalty on Physical rolls that require movement (and Defense). If both of your legs are wracked, you fall over — taking the Knocked Down Tilt — and cannot get up. Your Speed is reduced to 1; if you want to move at all, you cannot take any other action. Physical rolls that require movement are reduced to a chance die. </v>
+      </c>
+      <c r="F24" s="8" t="str">
+        <f>MID(A24,FIND("Causing the Tilt: ",A24) + 18,FIND("Ending the Tilt: ",A24) - FIND("Causing the Tilt: ",A24) - 18)</f>
+        <v xml:space="preserve">Some supernatural powers can cripple a victim’s limbs or break bone with a touch. A character can have his leg knocked out by a targeted blow to the leg (-2 penalty) that deals more damage than the character’s Stamina. </v>
+      </c>
+      <c r="G24" s="8" t="str">
+        <f>RIGHT(A24,LEN(A24)-FIND("Ending the Tilt: ",A24)-16)</f>
+        <v>If the Tilt is inflicted as a result of an attack, mark an ‘x’ under the leftmost Health box inflicted in that attack. The Tilt ends when the damage that caused it has healed. If the damage that inflicts this Tilt is aggravated, the character loses use of his leg permanently.</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>147</v>
+      </c>
+      <c r="B25" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C25" s="8" t="str">
+        <f>LEFT(A25,FIND("Description: ",A25)-2)</f>
+        <v>Leg Wrack</v>
+      </c>
+      <c r="D25" s="8" t="str">
+        <f>MID(A25,FIND("Description: ",A25) + 13,FIND("Effect: ",A25) - FIND("Description: ",A25) - 13)</f>
+        <v xml:space="preserve">Your leg feels like it’s going to snap clean off whenever you move; when you stop moving, you feel a burning numbness that encourages you to avoid moving. </v>
+      </c>
+      <c r="E25" s="8" t="str">
+        <f>MID(A25,FIND("Effect: ",A25) + 8,FIND("Causing the Tilt: ",A25) - FIND("Effect: ",A25) - 8)</f>
+        <v xml:space="preserve">If your leg is broken, sprained, or dislocated, halve your Speed and suffer a −2 penalty on Physical rolls that require movement (and Defense). If both of your legs are wracked, you fall over — taking the Knocked Down Tilt — and cannot get up. Your Speed is reduced to 1; if you want to move at all, you cannot take any other action. Physical rolls that require movement are reduced to a chance die. </v>
+      </c>
+      <c r="F25" s="8" t="str">
+        <f>MID(A25,FIND("Causing the Tilt: ",A25) + 18,FIND("Ending the Tilt: ",A25) - FIND("Causing the Tilt: ",A25) - 18)</f>
+        <v xml:space="preserve">Some supernatural powers can cripple a victim’s limbs or break bone with a touch. A character can have his leg knocked out by a targeted blow to the leg (–2 penalty) that deals more damage than the character’s Stamina. </v>
+      </c>
+      <c r="G25" s="8" t="str">
+        <f>RIGHT(A25,LEN(A25)-FIND("Ending the Tilt: ",A25)-16)</f>
+        <v>If the Tilt is inflicted as a result of an attack, mark an ‘x’ under the leftmost Health box inflicted in that attack. The Tilt ends when that damage that caused it has healed. If the damage that inflicts this Tilt is aggravated, the character loses use of his leg permanently.</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>129</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="D26" s="8" t="str">
+        <f>MID(A26,FIND("Description: ",A26) + 13,FIND("Effect: ",A26) - FIND("Description: ",A26) - 13)</f>
+        <v xml:space="preserve">You’ve got poison or sickness inside you. It’s tearing you apart from the inside; burning like acid in your gut and making your head swim. </v>
+      </c>
+      <c r="E26" s="8" t="str">
+        <f>MID(A26,FIND("Effect: ",A26) + 8,FIND("Causing the Tilt: ",A26) - FIND("Effect: ",A26) - 8)</f>
+        <v xml:space="preserve">This Tilt applies a general sense of being poisoned to a character without worrying about Toxicity during combat. For the purposes of this Tilt, a poison is either “moderate” or “grave” — a moderate poison causes one point of bashing damage per turn of combat, while a grave poison ups that to one point of lethal damage per turn. If the Storyteller cares to continue the effects of the poison outside of combat, he can apply the standard rules for handling poisons and toxins when combat is complete. </v>
+      </c>
+      <c r="F26" s="8" t="str">
+        <f>MID(A26,FIND("Causing the Tilt: ",A26) + 18,FIND("Ending the Tilt: ",A26) - FIND("Causing the Tilt: ",A26) - 18)</f>
+        <v xml:space="preserve">It’s possible for a character to not know that he’s been poisoned. It could be as innocuous as switching drinks with a pretty girl who is the target of a mob hit, or as simple as walking into a house with a carbon monoxide leak. That said, the main time poison comes up in combat is when one combatant inflicts it on another. Injecting your opponent with a syringe full of drain cleaner or snake venom is a Dexterity + Weaponry attack, suffering a -1 modifier for the improvised weapon. </v>
+      </c>
+      <c r="G26" s="8" t="str">
+        <f>RIGHT(A26,LEN(A26)-FIND("Ending the Tilt: ",A26)-16)</f>
+        <v>Short of immediate medical attention — and how many fights take place in an emergency room? — all a victim can do is struggle on. Roll Stamina + Resolve as a reflexive action each turn that your character is poisoned. If your character intends to act (meaning, takes a non-reflexive action), the roll suffers a -3 penalty. Success counteracts the damage for one turn only.</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="105" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>148</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="8" t="str">
+        <f>LEFT(A27,FIND("Description: ",A27)-2)</f>
+        <v>Poisoned</v>
+      </c>
+      <c r="D27" s="8" t="str">
+        <f>MID(A27,FIND("Description: ",A27) + 13,FIND("Effect: ",A27) - FIND("Description: ",A27) - 13)</f>
+        <v xml:space="preserve">You’ve got poison inside you. It’s tearing you apart from the inside; burning like acid in your gut and making your head swim. </v>
+      </c>
+      <c r="E27" s="8" t="str">
+        <f>MID(A27,FIND("Effect: ",A27) + 8,FIND("Causing the Tilt: ",A27) - FIND("Effect: ",A27) - 8)</f>
+        <v xml:space="preserve">This Tilt applies a general sense of being poisoned to a character without worrying about Toxicity during combat. For the purposes of this Tilt, a poison is either “moderate” or “grave” — a moderate poison causes 1 point of bashing damage per turn of combat, while a grave poison ups that to 1 point of lethal damage per turn. If the Storyteller cares to continue the effects of the poison outside of combat, he can apply the standard rules for handling poisons and toxins when combat is complete. </v>
+      </c>
+      <c r="F27" s="8" t="str">
+        <f>MID(A27,FIND("Causing the Tilt: ",A27) + 18,FIND("Ending the Tilt: ",A27) - FIND("Causing the Tilt: ",A27) - 18)</f>
+        <v xml:space="preserve">It’s possible for a character to not know that he’s been poisoned. It could be as innocuous as switching drinks with a pretty girl who is the target of a mob hit, or as simple as walking into a house with a carbon monoxide leak. That said, the main time poison comes up in combat is when one combatant inflicts it on another. Injecting your opponent with a syringe full of drain cleaner or snake venom is a Dexterity + Weaponry attack, suffering a −1 modifier for the improvised weapon. </v>
+      </c>
+      <c r="G27" s="8" t="str">
+        <f>RIGHT(A27,LEN(A27)-FIND("Ending the Tilt: ",A27)-16)</f>
+        <v>Short of immediate medical attention — and how many fights take place in an emergency room? — all a victim can do is struggle on. Roll Stamina + Resolve as a reflexive action each turn that your character is poisoned. If your character intends to act (meaning, takes a non-reflexive action), the roll suffers a −3 penalty. Success counteracts the damage for one turn only.</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="135" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>149</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="7" t="str">
+        <f>LEFT(A28,FIND("Description: ",A28)-2)</f>
+        <v>Sick</v>
+      </c>
+      <c r="D28" s="7" t="str">
+        <f>MID(A28,FIND("Description: ",A28) + 13,FIND("Effect: ",A28) - FIND("Description: ",A28) - 13)</f>
+        <v xml:space="preserve">Your stomach churns. You retch and heave but only succeed in bringing up bile. Sweat beads on your brow as you spike a fever. Your muscles ache with every movement. You’re wracked with hot and cold flushes as a sickness gnaws away at your insides. </v>
+      </c>
+      <c r="E28" s="7" t="str">
+        <f>MID(A28,FIND("Effect: ",A28) + 8,FIND("Causing the Tilt: ",A28) - FIND("Effect: ",A28) - 8)</f>
+        <v xml:space="preserve">This Tilt applies a general sickness to a character without worrying about the specific illness. For the purposes of this Tilt, a sickness is either “moderate” or “grave.” A moderate sickness, such as a cold, asthma, the flu, or just a bad hangover, causes a −1 penalty to all actions during combat. That penalty increases by one every two turns (the first two turns, the character suffers a −1 penalty, the next two turns the penalty is −2, and so on up to a maximum of −5 dice on turn 9). A grave sickness, such as pneumonia, heavy metal poisoning, or aggressive cancer, inflicts the same dice pool penalties as a mild sickness. In addition, however, the physical stress of fighting or even defending oneself from an attacker while gravely ill inflicts 1 point of bashing damage per turn of combat. </v>
+      </c>
+      <c r="F28" s="7" t="str">
+        <f>MID(A28,FIND("Causing the Tilt: ",A28) + 18,FIND("Ending the Tilt: ",A28) - FIND("Causing the Tilt: ",A28) - 18)</f>
+        <v xml:space="preserve">It’s not easy to deliberately make someone sick. Sure, if you can get your hands on a vial of smallpox or deliberately use a disease you’ve got to make someone sick (a breaking point, especially in the case of grave diseases like AIDS), then you’ve got a reasonable chance. Some supernatural creatures have abilities that can inflict diseases on others. Aside from that, you’ve just got to expose your opponent to the sickness long before you fight and hope for the best. </v>
+      </c>
+      <c r="G28" s="7" t="str">
+        <f>RIGHT(A28,LEN(A28)-FIND("Ending the Tilt: ",A28)-16)</f>
+        <v>This Tilt reflects the effects of sickness as it specifically applies to combat. Outside of combat, use the existing system for diseases (World of Darkness Rulebook, p. 176). The penalties inflicted by this Tilt fade at a rate of one point per turn once the character has a chance to rest, but any damage inflicted remains until the character can heal.</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>130</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="8" t="s">
         <v>55</v>
       </c>
+      <c r="D29" s="8" t="str">
+        <f>MID(A29,FIND("Description: ",A29) + 13,FIND("Effect: ",A29) - FIND("Description: ",A29) - 13)</f>
+        <v xml:space="preserve">Your character is dazed and unable to think straight. Maybe her vision blurs. If she’s stunned as a result of a blow to the head, she’s probably got a concussion. </v>
+      </c>
+      <c r="E29" s="8" t="str">
+        <f>MID(A29,FIND("Effect: ",A29) + 8,FIND("Causing the Tilt: ",A29) - FIND("Effect: ",A29) - 8)</f>
+        <v xml:space="preserve">A character with the Stunned Tilt loses her next action, and halves her Defense until she can next act. </v>
+      </c>
+      <c r="F29" s="8" t="str">
+        <f>MID(A29,FIND("Causing the Tilt: ",A29) + 18,FIND("Ending the Tilt: ",A29) - FIND("Causing the Tilt: ",A29) - 18)</f>
+        <v xml:space="preserve">A character can be stunned by any attack that does at least as much damage as her Size in a single hit. Some weapons have a “stun” special ability. These double the weapon modifier only for the purpose of working out whether the attacker inflicts the Stunned Tilt. Attacks against the target’s head (see “Specified Targets,” p. 168) count the character’s Size as one lower for the purposes of this Tilt. The Storyteller might determine that additional effects cause this Tilt, like being caught in the blast area of an explosion. </v>
+      </c>
+      <c r="G29" s="8" t="str">
+        <f>RIGHT(A29,LEN(A29)-FIND("Ending the Tilt: ",A29)-16)</f>
+        <v>The effects of this Tilt normally only last for a single turn. The character can end the Tilt during her own action by reflexively spending a point of Willpower to gather her wits, though she suffers a –3 modifier to any actions she takes that turn.</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="120" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="8" t="str">
+        <f>LEFT(A30,FIND("Description: ",A30)-2)</f>
+        <v>Stunned</v>
+      </c>
+      <c r="D30" s="8" t="str">
+        <f>MID(A30,FIND("Description: ",A30) + 13,FIND("Effect: ",A30) - FIND("Description: ",A30) - 13)</f>
+        <v xml:space="preserve">Your character is dazed and unable to think straight. Maybe her vision blurs. If she’s stunned as a result of a blow to the head, she’s probably got a concussion. </v>
+      </c>
+      <c r="E30" s="8" t="str">
+        <f>MID(A30,FIND("Effect: ",A30) + 8,FIND("Causing the Tilt: ",A30) - FIND("Effect: ",A30) - 8)</f>
+        <v xml:space="preserve">A character with the Stunned Tilt loses her next action, and halves her Defense until she can next act. </v>
+      </c>
+      <c r="F30" s="8" t="str">
+        <f>MID(A30,FIND("Causing the Tilt: ",A30) + 18,FIND("Ending the Tilt: ",A30) - FIND("Causing the Tilt: ",A30) - 18)</f>
+        <v xml:space="preserve">A character can be stunned by any attack that does at least as much damage as her Size in a single hit. Some weapons have a “stun” special ability. These double the weapon modifier only for the purposes of determining whether the attacker inflicts the Stunned Tilt. Attacks against the target’s head (see “Specified Targets,” p. 203) count the character’s Size as one lower for the purposes of this Tilt. The Storyteller might determine that additional effects cause this Tilt, like being caught in the blast area of an explosion (World of Darkness Rulebook, p. 178). </v>
+      </c>
+      <c r="G30" s="8" t="str">
+        <f>RIGHT(A30,LEN(A30)-FIND("Ending the Tilt: ",A30)-16)</f>
+        <v>The effects of this Tilt normally only last for a single turn. The character can end the Tilt during her own action by reflexively spending a point of Willpower to gather her wits, though she suffers a –3 modifier to any actions she takes that turn.</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1" xr:uid="{518D5A9A-081D-4C1F-8191-ADB5FBCD75C8}"/>
+  <autoFilter ref="A1:G1" xr:uid="{35D9467A-51A5-4FD5-AF31-5B8C2F8392C4}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G30">
+      <sortCondition ref="C1"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Etats.xlsx
+++ b/Etats.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DC52CCC-DAA5-44DF-AAB5-33E7D1456F9E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="111" documentId="6_{6E36F479-7684-4CB8-A20A-2417758874EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{EDD9E4CF-A079-48B0-AE9A-943C1FF8DCB0}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3375" yWindow="2895" windowWidth="28800" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Etats" sheetId="1" r:id="rId1"/>
-    <sheet name="Tilts" sheetId="2" r:id="rId2"/>
+    <sheet name="Etats Spirituels" sheetId="3" r:id="rId2"/>
+    <sheet name="Tilts" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Etats!$A$1:$F$65</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tilts!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Etats Spirituels'!$A$1:$E$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Tilts!$A$1:$F$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -23,9 +25,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="411">
   <si>
     <t>Nom</t>
   </si>
@@ -1140,6 +1140,151 @@
   </si>
   <si>
     <t xml:space="preserve">A character can be stunned by any attack that does at least as much damage as her Size in a single hit. Some weapons have a “stun” special ability. These double the weapon modifier only for the purposes of determining whether the attacker inflicts the Stunned Tilt. Attacks against the target’s head (see “Specified Targets,” p. 203) count the character’s Size as one lower for the purposes of this Tilt. The Storyteller might determine that additional effects cause this Tilt, like being caught in the blast area of an explosion (World of Darkness Rulebook, p. 178). </t>
+  </si>
+  <si>
+    <t>RESONANT</t>
+  </si>
+  <si>
+    <t>The subject of this Condition is within the sphere of influence of a spirit.</t>
+  </si>
+  <si>
+    <t>This Condition is common and naturally-occurring — if an object, phenomenon, person, or place matches the spirit’s purview in some way, it has this Condition. Anything matching the description of one of a spirit’s Influences counts as having this Condition tagged to the spirit. Summoning rites intended to entice a particular spirit to a location work by instilling the qualities that result in this Condition. Finally, a high-Rank spirit can use a Create Influence to cause the prerequisites for the Condition itself.</t>
+  </si>
+  <si>
+    <t>The Condition ends if the phenomenon creating it ends. A forest stops being Resonant for a tree spirit when humans fell all the trees, a grief spirit can’t Influence someone who has healed and let go of his pain, and a fire spirit must move on when the fire is extinguished. Banishing rites may temporarily suppress the Condition.</t>
+  </si>
+  <si>
+    <t>OPEN</t>
+  </si>
+  <si>
+    <t>The place, object, animal, or person covered by a Resonant Condition is now conditioned to accept the resonant spirit. That spirit can now attempt to Fetter itself to the subject of the Condition, or, if the Condition is on a location, Materialize.</t>
+  </si>
+  <si>
+    <t>Prérequis</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>The Resonant Condition for the same phenomenon to which this Condition is tagged.</t>
+  </si>
+  <si>
+    <t>This Condition is usually the result of fine-tuning the Resonant Condition as part of an extended action, involving the subject and spirit acting in concert for a number of scenes equal to Rank or a living subject’s Resolve, whichever is higher. Using a Strengthen Influence allows a spirit to temporarily upgrade Resonant to Open as an instant action. Last, both Lunacy and some Wolf-Blooded Tells can cause Open spontaneously, offering the subject up to a spirit without any effort on its part.</t>
+  </si>
+  <si>
+    <t>The Condition ends if the prerequisite Condition is removed. Exorcism rites work by removing this Condition, reverting it to the prerequisite</t>
+  </si>
+  <si>
+    <t>CONTROLLED</t>
+  </si>
+  <si>
+    <t>The object, creature, or person covered by an Open Condition has now been so conditioned that the spirit may attempt to Claim it, permanently merging with it.</t>
+  </si>
+  <si>
+    <t>The intended subject of this Condition must have the Open Condition, tagged to the spirit attempting to cause it.</t>
+  </si>
+  <si>
+    <t>This Condition is the result of repeated use of the Possess Manifestation Effect by the causing spirit. It must have succeeded in possessing the subject on a number of separate occasions equal to the Willpower of spirit or subject (whichever is higher). If any Possessed Condition is removed before its duration ends, the spirit loses any progress on building to the required number of possessions.</t>
+  </si>
+  <si>
+    <t>Successfully ending the Controlled Condition, or a Claimed Condition resulting from it, against the spirit’s will removes this Condition and reverts the subject to Open.</t>
+  </si>
+  <si>
+    <t>REACHING</t>
+  </si>
+  <si>
+    <t>The spirit has opened a conduit through the Gauntlet, allowing it to use Influences and Numina to affect the other side. Numina with [R] after their name can be used with this Condition. Characters capable of perceiving spirits in Twilight can sense the conduit’s presence with a successful Wits + Composure roll.</t>
+  </si>
+  <si>
+    <t>This Condition is the result of the Reaching Manifestation Effect and lasts for one Scene.</t>
+  </si>
+  <si>
+    <t>At the end of the scene, theCondition fades.</t>
+  </si>
+  <si>
+    <t>SHADOW GATE</t>
+  </si>
+  <si>
+    <t>The location has a hole punched through the Gauntlet. Spirits, packs — and even incautious humans — can cross through it without the use of any powers. The Shadow Gate is visible even to material beings, as the Shadow world and material worlds mix.</t>
+  </si>
+  <si>
+    <t>This Condition can be created by using the Shadow Gateway Manifestation Effect on an Open Condition.</t>
+  </si>
+  <si>
+    <t>At the end of the scene, the
+Condition fades.</t>
+  </si>
+  <si>
+    <t>MATERIALIZED</t>
+  </si>
+  <si>
+    <t>The spirit has shifted from ephemeral to material substance, Manifesting in physical form. All the rules for ephemeral spirit’s traits still apply except for the effects of being in Twilight. This Condition protects the spirit from Essence bleed for its duration.</t>
+  </si>
+  <si>
+    <t>This Condition is created by a spirit using the Materialize Manifestation Effect on an Open Condition. If the Open Condition used is on an object or person, the spirit must materialize within its Rank in yards.</t>
+  </si>
+  <si>
+    <t>Materialization lasts for one hour per success on the activating roll. When the duration ends, the spirit fades back into Twilight. Physical contact with a Bane or removal of a prerequisite Condition causes the Condition to end early.</t>
+  </si>
+  <si>
+    <t>FETTERED</t>
+  </si>
+  <si>
+    <t>The spirit has secured itself to an object or creature. As long as it remains Fettered, the spirit is safe from Essence bleed. The spirit remains in Twilight and must stay within five yards of the Fetter. Most spirits Fettering themselves literally hide inside their Fetters if they are small enough.
+The spirit pays one less Essence for using Influences on the Fetter, but may not use them or Numina on another target as long as the Fetter lasts.</t>
+  </si>
+  <si>
+    <t>This Condition is created by a spirit using the Fetter Manifestation Effect.</t>
+  </si>
+  <si>
+    <t>Fetters are permanent unless the prerequisite Conditions are ended, or if the subject of the Fetter is destroyed or killed (if a living being). The spirit can voluntarily end the Condition by using the Unfetter Manifestation Effect.</t>
+  </si>
+  <si>
+    <t>URGED</t>
+  </si>
+  <si>
+    <t>This animal or human host has been used as a Fetter by a spirit. The spirit may read the subject’s thoughts with a successful Power + Finesse roll, contested by Resolve + Primal Urge. Success reveals surface thoughts. The spirit may urge the host to take a specified action with a successful Power + Finesse roll contested by Resolve + Composure. If the spirit wins, it creates the urge. Following the urge rewards the host with a Beat.</t>
+  </si>
+  <si>
+    <t>The Urged Condition ends whenever the linked Fetter ends.</t>
+  </si>
+  <si>
+    <t>POSSESSED</t>
+  </si>
+  <si>
+    <t>This object, corpse, or living being is temporarily controlled by a spirit. Living hosts are put into a coma-like state while being possessed — they experience the possession as missing time, except for flashbacks that might come out in dreams or times of stress such as losing Integrity. The spirit may not use Numina or Influences while controlling the host,but is safe from Essence bleed as long as the possession lasts.
+The spirit may pay one Essence per turn to heal one lethal or bashing wound or a point of structure lost to damage. A corpse that died through damage begins Possession incapacitated.
+Spirits possessing inanimate objects or corpses have a great deal of control over their host. A spirit controlling an object can’t make it do anything it couldn’t do while being operated, but it can turn switches on and off, operate machinery, use keyboards, and turn dials. Use the spirit’s Finesse if dice rolls are necessary.
+Corpses and other articulated hosts capable of movement, such as shop mannequins or industrial robots, use their own Physical Attributes but the spirit’s Attributes in Social or Mental rolls. By spending a point of Essence, the spirit can use its own Attributes instead of the host’s for Physical tasks for a turn, but doing so causes one point of lethal damage or structure loss to the host. 
+Living hosts require more time for the spirit to gain full control and always use the host’s own Attributes. The spirit may read the host’s mind with a Finesse Roll at a –4 penalty, use the host’s Physical Skills at a –3 penalty, and the host’s Social and Mental Skills at –4. Reduce these penalties by one die per day that the spirit has been Fettered to the host. Most possessing spirits Fetter themselves to their intended hosts and use the Possess Manifestation Effect to take full control only in emergencies.
+To possess a host, the spirit must remain in Twilight, superimposed over the host. This means that if the host touches the spirit’s bane or is injured by a weapon made of the bane, the spirit will suffer wounds to its Corpus.</t>
+  </si>
+  <si>
+    <t>This Condition is created by a spirit using the Possess Manifestation Effect.</t>
+  </si>
+  <si>
+    <t>The object or victim must be under the Open Condition, tagged to the spirit.</t>
+  </si>
+  <si>
+    <t>The possession lasts for a single scene, unless the spirit abandons it early or the host is killed or destroyed. Abjurations, exorcisms and forced contact with banes and bans can all motivate a spirit to release a host.</t>
+  </si>
+  <si>
+    <t>CLAIMED</t>
+  </si>
+  <si>
+    <t>A Claimed object, corpse, creature, or person is permanently possessed and merges with the spirit involved. Unlike victims of Possess, a living Claimed isn’t put into a fugue state, but remains mentally active while his soul and the Claiming spirit merge together over the course of several days. During the period of fusion, the subject is under all the effects of the Urged Condition, described above. Once per day, starting with the moment the Claimed Condition is created, add one dot of the spirit’s Attributes to the host’s, permanently raising them. Power may be assigned to Strength, Intelligence, or Presence, Finesse to Wits, Dexterity, or Manipulation, and Resistance to Stamina, Composure, or Resolve. The host’s physical form begins to mutate, taking on an appearance influenced by the original host and the spirit.
+Claimed corpses add dots to Attributes as above, but start with all Mental and Social Attributes at 0. Inanimate objects begin with Dexterity 0, but use Structure and Durability instead of Strength and also start the claiming process with all Mental and Social Attributes at 0. Corpses and inanimate hosts don’t spend the claiming period under the Urged Condition, having no minds of their own to warp.
+Claimed may use the spirit’s Influences, but not Numinaor Manifestation Effects. They may develop unique Dread Powers (p. 210). From the moment the Claimed Condition starts, the spirit is safe from Essence bleed. The hybrid being that results has the spirit’s Essence trait, ban, and bane, but is a material being. Claimed that were once spirits may cross the Gauntlet at a Locus with a successful Intelligence + Presence roll. Claimed that were inanimate objects are fully animate, fusions of spiritual power, metal, and plastic.</t>
+  </si>
+  <si>
+    <t>Claim is permanent in living hosts unless the spirit decides to detach itself, rolling its original Power + Finesse penalized by its own Rank and contested by the Claimed host’s Resolve + Composure — including any dots gained from being Claimed. If the spirit succeeds, it separates from the host. Former hosts are physically and mentally scarred — their physical appearance changes back at the same rate it mutated and the extra Attribute dots fade at a rate of two per day. The Essence trait and any Dread Powers the Claimed developed immediately vanish.
+In nonliving hosts, Claim is only temporary — once the Claim has fully formed, the host loses one dot of a Physical Attribute (or equivalent for formerly inanimate objects) per three days. When any of these Attributes reaches 0, the host disintegrates and the spirit is released into Twilight.</t>
+  </si>
+  <si>
+    <t>This Condition is created by a spirit using the Claim Manifestation Effect.</t>
+  </si>
+  <si>
+    <t>The object or victim must be under the Controlled Condition, tagged to the spirit.</t>
   </si>
 </sst>
 </file>
@@ -1204,7 +1349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1222,6 +1367,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1506,23 +1657,23 @@
   <dimension ref="A1:F65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D61" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C48" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F65" sqref="F65"/>
+      <selection pane="bottomRight" activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
     <col min="3" max="3" width="80" style="2" customWidth="1"/>
-    <col min="4" max="4" width="38" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38" customWidth="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>56</v>
       </c>
@@ -1542,7 +1693,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>58</v>
       </c>
@@ -1562,7 +1713,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>58</v>
       </c>
@@ -1582,7 +1733,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
@@ -1602,7 +1753,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>57</v>
       </c>
@@ -1622,7 +1773,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>57</v>
       </c>
@@ -1642,7 +1793,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>57</v>
       </c>
@@ -1662,7 +1813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -1682,7 +1833,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>58</v>
       </c>
@@ -1702,7 +1853,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>58</v>
       </c>
@@ -1722,7 +1873,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>57</v>
       </c>
@@ -1742,7 +1893,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -1762,7 +1913,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>57</v>
       </c>
@@ -1782,7 +1933,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>57</v>
       </c>
@@ -1802,7 +1953,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>57</v>
       </c>
@@ -1822,7 +1973,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>57</v>
       </c>
@@ -1842,7 +1993,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
@@ -1862,7 +2013,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
@@ -1882,7 +2033,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>57</v>
       </c>
@@ -1902,7 +2053,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>58</v>
       </c>
@@ -1922,7 +2073,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>57</v>
       </c>
@@ -1942,7 +2093,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
@@ -1962,7 +2113,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>58</v>
       </c>
@@ -1982,7 +2133,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="114" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>57</v>
       </c>
@@ -2002,7 +2153,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>57</v>
       </c>
@@ -2022,7 +2173,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>58</v>
       </c>
@@ -2042,7 +2193,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="114" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>57</v>
       </c>
@@ -2062,7 +2213,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
@@ -2082,7 +2233,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>57</v>
       </c>
@@ -2102,7 +2253,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
@@ -2122,7 +2273,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>57</v>
       </c>
@@ -2142,7 +2293,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" s="3" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>57</v>
       </c>
@@ -2162,7 +2313,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>57</v>
       </c>
@@ -2182,7 +2333,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>58</v>
       </c>
@@ -2202,7 +2353,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A35" s="5" t="s">
         <v>58</v>
       </c>
@@ -2222,7 +2373,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
         <v>57</v>
       </c>
@@ -2242,7 +2393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="171" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" ht="210" x14ac:dyDescent="0.25">
       <c r="A37" s="5" t="s">
         <v>57</v>
       </c>
@@ -2262,7 +2413,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>57</v>
       </c>
@@ -2282,7 +2433,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>58</v>
       </c>
@@ -2302,7 +2453,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="114" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
         <v>57</v>
       </c>
@@ -2322,7 +2473,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
         <v>58</v>
       </c>
@@ -2342,7 +2493,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A42" s="5" t="s">
         <v>57</v>
       </c>
@@ -2362,7 +2513,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
         <v>58</v>
       </c>
@@ -2382,7 +2533,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="5" t="s">
         <v>58</v>
       </c>
@@ -2402,7 +2553,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
         <v>57</v>
       </c>
@@ -2422,7 +2573,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A46" s="5" t="s">
         <v>57</v>
       </c>
@@ -2442,7 +2593,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
         <v>57</v>
       </c>
@@ -2462,7 +2613,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A48" s="5" t="s">
         <v>57</v>
       </c>
@@ -2482,7 +2633,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A49" s="5" t="s">
         <v>57</v>
       </c>
@@ -2502,7 +2653,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>57</v>
       </c>
@@ -2522,7 +2673,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>57</v>
       </c>
@@ -2542,7 +2693,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>58</v>
       </c>
@@ -2562,7 +2713,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" ht="270" x14ac:dyDescent="0.25">
       <c r="A53" s="5" t="s">
         <v>57</v>
       </c>
@@ -2582,7 +2733,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>57</v>
       </c>
@@ -2602,7 +2753,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>58</v>
       </c>
@@ -2622,7 +2773,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="42.75" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>57</v>
       </c>
@@ -2642,7 +2793,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>58</v>
       </c>
@@ -2662,7 +2813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A58" s="5" t="s">
         <v>57</v>
       </c>
@@ -2682,7 +2833,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A59" s="5" t="s">
         <v>57</v>
       </c>
@@ -2702,7 +2853,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
@@ -2722,7 +2873,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>58</v>
       </c>
@@ -2742,7 +2893,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A62" s="5" t="s">
         <v>57</v>
       </c>
@@ -2762,7 +2913,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A63" s="5" t="s">
         <v>57</v>
       </c>
@@ -2782,7 +2933,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A64" s="5" t="s">
         <v>57</v>
       </c>
@@ -2802,7 +2953,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="114" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A65" s="5" t="s">
         <v>57</v>
       </c>
@@ -2830,27 +2981,240 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A14D36AE-BE73-4E04-92BC-36477B6C6F8A}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="2" width="90.42578125" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="72.85546875" customWidth="1"/>
+    <col min="5" max="5" width="50.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>372</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>374</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>377</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>379</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>380</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>388</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>395</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="360" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>401</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="300" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>409</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>408</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:E2" xr:uid="{517F8BE9-D1B5-48B3-A4BB-2CB3126EB213}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C55C0BB8-057D-47B4-9ABC-18D1A275BB50}">
   <dimension ref="A1:F30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46" customWidth="1"/>
-    <col min="4" max="4" width="89.265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="69.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="69.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>56</v>
       </c>
@@ -2870,7 +3234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>57</v>
       </c>
@@ -2890,7 +3254,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>58</v>
       </c>
@@ -2910,7 +3274,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>58</v>
       </c>
@@ -2930,7 +3294,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>57</v>
       </c>
@@ -2950,7 +3314,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="114" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>58</v>
       </c>
@@ -2970,7 +3334,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>58</v>
       </c>
@@ -2990,7 +3354,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>58</v>
       </c>
@@ -3010,7 +3374,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>58</v>
       </c>
@@ -3030,7 +3394,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
@@ -3050,7 +3414,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
@@ -3070,7 +3434,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="114" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>58</v>
       </c>
@@ -3090,7 +3454,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="128.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>58</v>
       </c>
@@ -3110,7 +3474,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>58</v>
       </c>
@@ -3130,7 +3494,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>58</v>
       </c>
@@ -3150,7 +3514,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>57</v>
       </c>
@@ -3170,7 +3534,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>58</v>
       </c>
@@ -3190,7 +3554,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="71.25" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>58</v>
       </c>
@@ -3210,7 +3574,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>58</v>
       </c>
@@ -3230,7 +3594,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="242.25" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" ht="285" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>58</v>
       </c>
@@ -3250,7 +3614,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>58</v>
       </c>
@@ -3270,7 +3634,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
@@ -3290,7 +3654,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>58</v>
       </c>
@@ -3310,7 +3674,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>57</v>
       </c>
@@ -3330,7 +3694,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="57" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>58</v>
       </c>
@@ -3350,7 +3714,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>57</v>
       </c>
@@ -3370,7 +3734,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="85.5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>58</v>
       </c>
@@ -3390,7 +3754,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="114" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" ht="135" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>58</v>
       </c>
@@ -3410,7 +3774,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>57</v>
       </c>
@@ -3430,7 +3794,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="99.75" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" ht="120" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>58</v>
       </c>
